--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_285.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_285.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32722-d78258-Reviews-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>214</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Fairfield-Inn-By-Marriott-Mission-Viejo-Orange-County.h24308.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_285.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_285.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="954">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>doug001</t>
+  </si>
+  <si>
     <t>07/02/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>wwesq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r583754540-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>This is a very clean hotel with a very friendly staff. The breakfast is very good with a selection that varies slightly from day to day. There was scrambled eggs, cheese omelets, Canadian bacon, turkey sausage and regular sausage, make your own waffles and all the regular cereals and bread. Overall the selection was good. The staff was particularly helpful and friendly. The down side is the noise, nestled between a freeway and a busy road. I actually prefer the freeway side as the noise is a constant hum and diminishes at night. The road side is loud with cars accelerating at the light and seem to go on very late. This is probably not for the noise sensitive person.More</t>
   </si>
   <si>
+    <t>Tracey B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r576651113-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>This was a 4 night stay for business. Initially I was a bit put off by the location - tucked behind two gas stations off a parkway and surrounded by busy streets/highway. But, I got over it quickly - the hotel is well-appointed and the rooms are very quiet and clean. Breakfast is your average hotel buffet - predictable and nothing special - but gets the job done. Staff were very friendly. Very nice outdoor pool area and exercise room. Not much around that you can walk to -  but found 2 good restaurants that are walkable - Wineworks and Dublin Pub. Refrigerator in each room. Can get extra Marriott points if you defer housekeeping. WiFi is good and parking is free.More</t>
   </si>
   <si>
+    <t>Bridgetpianos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r561142506-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -238,6 +250,9 @@
   </si>
   <si>
     <t>The front desk staff are great. The room was spacious and very clean.  The housekeeper was excellent. The free breakfast was just average. It is in a great location and close to shopping and many restaurants.</t>
+  </si>
+  <si>
+    <t>keifehr8</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r552956978-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -280,6 +295,9 @@
  I actually came in the hotel 3 nights in a row after midnight, and there is no one at the front desk, back door entrance is wide open (no keycard required to...I was one of the unfortunate people who got stuck here for 4 nights.Was just here this past weekend on a 4 day weekend. Got a king size room on the 5th floor facing the freeway. The freeway noise coming in through the window was unbearable (it sounds like the window is open but window is shut). It is really bad i had to call the front desk at 9:30pm (trying to sleep) to get transferred to another room away from the freeway.the front desk gave us another king size room above the front entrance on the 5th floor and the noise level is the same as the first room we got. I just got fed up with it and decided to just stick with the 2nd room and was able to do a work around. Luckily the workaround worked for us, We had to turn on the thermostat fan while we sleep to over ride the freeway noise. WE just sucked it up because its late in the night.ALso, keep in mind the hotel is next to a 2 gas station and CArl's JR. There is no Security in the hotel.The hotel's security protocol needs to be address before something goes bad happen. I actually came in the hotel 3 nights in a row after midnight, and there is no one at the front desk, back door entrance is wide open (no keycard required to gain entry after dark), 1 person in the back office busy looking at the monitor/TV like no one is around. Does not even pays attention whos in and out of the hotel after dark. Not even a single employee was visible during those 3 nights i came in after midnight.Elevator does not have a keycard after dark, so basically any unwanted person can go up/down to the floor. Elevator smells like someone smells like someone spills some gas on the floor and can use some vacuuming.Rooms are smaller than expected. the set up in the room is weird. Curtains are dirty/dusty. all doors are loud and can use some door rubber stopper to minimize the door noise.Free breakfast is okay (its free, what do you expect)I stayed in this hotel due to the cheap price (i guess you get what you paid for).Overall, i will never go back to this hotel again. The hotel needs a lot to be change to be able to get on the Marrion/Starwood standards. So i dont know why this was considered a Marriot brand.when i checked out, I asked to speak to a manager but the manager doesnt come in mid morning. so i gave my cell # for the manager to give me a call but its been 48 hours ago and still not receive any call from the manager. Stay away from this hotel.More</t>
   </si>
   <si>
+    <t>Donna123094</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r552504769-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -295,6 +313,9 @@
     <t>Everyone worked so hard to assist me with my every need and the staff was exceptional!  Pool and jacuzzi clean and relaxing.  Reluctant when I first arrived and overly pleased extending my stay an additional night.  Hotel is conveniently located off route 5 and plenty of stores and restaurants nearby!</t>
   </si>
   <si>
+    <t>72GG_travels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r526873310-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -322,6 +343,9 @@
     <t>My granddaughter and I stayed one night for a quick college apartment/roommate review.  The hotel was very clean.  Breakfast was good. The hotel was undergoing room renovation.  Our room had already been redone with very nice modular units...very business oriented.  The closet would be a bit small for more than 2 or 3 days but didn't affect us.  Our only  complaint would be the mattress.  I don't  think they were replaced/upgraded.  It felt like cardboard over springs.  But in my direct hotel review, the manager has already responded and implied that the mattress issue would be addressed.   Be aware... the entrance access is easy to miss as the driveway is located between two gas stations just off I5.  More</t>
   </si>
   <si>
+    <t>Bill H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r525751916-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -349,6 +373,9 @@
     <t>I found this hotel to be a great value. Very quiet, close highway access, great staff and breakfast. No issues and typical/consistent Fairfield experience. Walking distance to pub next door and other restaurants a short drive or walk away.More</t>
   </si>
   <si>
+    <t>Rivka G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r499701172-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -367,6 +394,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Musicpromoters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r492064460-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -385,6 +415,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Rbb599</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r490136897-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -409,6 +442,9 @@
     <t>The staff was nice and everything was very clean. I found the room layout to be crowded and the bathroom door awkward. There was a bad smell coming from drain in the sink. For the price breakfast was good as well as the location. Two gas stations next to hotel and Carl's Jr and Green Burrito within walking distance. Would stay again.More</t>
   </si>
   <si>
+    <t>Amy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r486683740-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -427,6 +463,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>CHG1008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r483997960-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -451,6 +490,9 @@
     <t>The hotel is in a difficult location.  Because I used to live in the area, I knew where to look, but for someone new to the area, it can be a tough find. I would rate the hotel between a higher end budget and low end mid-range hotel.  The rooms are decent, odd doors entering and the elevators are strange in appearance. The free breakfast is like all others, nothing special. My biggest challenge was the noise. I was trying to rest in the morning and two housekeepers decided to lean against the wall next door to my room and carry on a loud conversation for close to ½ hour.  I could hear their walkie talkies buzzing and loud.  I opened the door and asked if there was a problem, they said, "no", apologized and turned off the walkie talkie.  I closed the door and they continued talking! The ladies eventually stopped and finally began to do their jobs, but then proceeded to turn on a radio with loud Spanish music, it was impossible to rest.  I finally got ready to go out (11:30 am) and noticed a note slipped under my door saying that since I had the Do Not Disturb sign, they would not be cleaning my room, but if I needed anything, let them know.  Seriously??? When I left my room I noticed that the housekeeping cart was a few doors down, so I figured that since...The hotel is in a difficult location.  Because I used to live in the area, I knew where to look, but for someone new to the area, it can be a tough find. I would rate the hotel between a higher end budget and low end mid-range hotel.  The rooms are decent, odd doors entering and the elevators are strange in appearance. The free breakfast is like all others, nothing special. My biggest challenge was the noise. I was trying to rest in the morning and two housekeepers decided to lean against the wall next door to my room and carry on a loud conversation for close to ½ hour.  I could hear their walkie talkies buzzing and loud.  I opened the door and asked if there was a problem, they said, "no", apologized and turned off the walkie talkie.  I closed the door and they continued talking! The ladies eventually stopped and finally began to do their jobs, but then proceeded to turn on a radio with loud Spanish music, it was impossible to rest.  I finally got ready to go out (11:30 am) and noticed a note slipped under my door saying that since I had the Do Not Disturb sign, they would not be cleaning my room, but if I needed anything, let them know.  Seriously??? When I left my room I noticed that the housekeeping cart was a few doors down, so I figured that since I removed the Do Not Distrub, they were still cleaning, they would clean my room, When I came back around 9 p.m., my room had not been touched.  I come to CA very frequently and this hotel will not be on my return list.More</t>
   </si>
   <si>
+    <t>Aaron G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r476268184-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -467,6 +509,9 @@
   </si>
   <si>
     <t>I read reviews saying the hotel is tough to locate. Well you think I'd learn from other reviews but no. If you're not paying attention you'll drive right past the entrance. The engrave is right in between both gas stations, drive down a slight hill and that brings you to the front of the hotel. Check in was very fast. The rooms are very clean but a little tight. The hallways smell like bubble gum or some type of car wash cleaner... shower door opens to the outside of the room which was a little odd and if you're tall, get ready to dip down to shower as the shower head is low. We took a short uber ride into Capistrano which was a great way to spend the evening. Very close to a lot of restaurants and sights. Overall good place, safe, quite and Good staff. More</t>
+  </si>
+  <si>
+    <t>TrvlAgtRet</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r475674860-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -489,6 +534,9 @@
 I wouldn't...I was scheduled for back surgery, and this Fairfield Inn was listed as being close to both the surgery center and the surgeon's office. We live about 3 hrs away, so drove down the day before for my pre-op with the surgeon. At the surgery center, after being prepped and waiting about an hour, the surgeon came in with the bad news that a critical piece of equipment needed for my procedure was missing. This meant postponing the surgery for two days, so we rushed back to the Fairfield Inn, explained the situation, and they allowed us to check out around 2:30pm without charging us for the second night.  We drive home, to return two days later. The staff here is extremely accommodating; they allowed us to check in early, and we asked if it would be possible for a mini fridge and microwave be brought to the room. It was delivered. Unbelievably, I got a call from the surgery center that their anesthesiologist had a family emergency and there were none available, so for a second time, the surgery was postponed --for four days. We decided not to fight Sunday traffic and spend the night. We sat by the small pool and tried to enjoy a mini-vacation. My new surgery will be at a hospital in Huntington Beach, so I booked the Marriott Courtyard. I hope they will be as wonderful as the people here have been!I wouldn't hesitate to recommend this property, if one needs to be in the area. I must caution that it is difficult to find at first, off a driveway between 2 gas stations. Once you figure that out, there is a Carl's Junior right near the parking lot, two gas stations with mini marts, complimentary breakfast, and a Target and grocery store just down the road.More</t>
   </si>
   <si>
+    <t>Riles13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r468402143-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -507,6 +555,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Veronica R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r463280338-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -525,6 +576,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>lesuerg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r460751781-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -552,6 +606,9 @@
     <t>The first impression of this hotel, which is a remodeled  Hampton Inn, is: "Wow--these ceilings are really low!" Like about 7 feet 4 inches in the lobby and common area. For a tall person like me, that's uncomfortable and oppressive. Room was okay--a bit on the small/crowded side. I like Fairfield for a value brand, but I'd look elsewhere when coming back to this area.More</t>
   </si>
   <si>
+    <t>Coast2Coasts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r453707442-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -567,6 +624,9 @@
     <t xml:space="preserve">Great location just off 5, quiet, clean, good guality. Breakfast is really good-fresh &amp; variety. Zack at front desk goes above what is expected for excellent customer service.  Room a little too small but dooable. Strange entrench bit plenty of parking </t>
   </si>
   <si>
+    <t>SAEMom25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r452786624-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -591,6 +651,9 @@
     <t>This place was accommodating and quiet despite its location smack in the middle of a cloverleaf onto busy Highway 5 in Orange County. Not an easy one to find since you drive into the gas station parking lot to get there. You can see it, just can't reach it. Despite all that, a nice stay, good breakfast, all the necessary amenities (no more...), clean and an easily-accessible, fully functioning business center. Slept well too on soft down pillows. More</t>
   </si>
   <si>
+    <t>bklewis597</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r448347494-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -618,6 +681,9 @@
     <t>I stayed here for two nights.  I'm a local but had family staying here.  Carlos at the front desk is a delight.  Very sweet and also remembered my name.  Breakfast was okay, could be better.  The orange juice tasted like water and powder.  Rooms were clean and I loved the bathroom products.  Would definitely recommend if you're looking for something cheap and can get past the orange and green.More</t>
   </si>
   <si>
+    <t>Tom C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r437217067-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -636,6 +702,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Linda D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r437196774-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -648,6 +717,9 @@
     <t>Good basic room, better than others in the area. Sound proofing between floors almost non-existent (or else there were hippo's in the room above!) Great location for my needs. Passed on the "breakfast" - hit a local diner and you will be much happier.</t>
   </si>
   <si>
+    <t>Carol O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r434435140-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -675,6 +747,9 @@
     <t>I found the room to be comfortable but the breakfast and the dining area to eat were pretty bad and way overcrowded. Good value for the price and close to my family. Would recommend this, however it is close to freeway so you have to watch which room you get. More</t>
   </si>
   <si>
+    <t>Kristen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r424975847-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -699,6 +774,9 @@
     <t>My parents and I stayed here for a long weekend and we loved it. The rooms were a decent size, beds were very comfortable and the entire property itself was very clean. We got in kind of late but nonetheless the young man at the front desk was very kind and professional. He went out of his way to try to personalize the checking in process for us rather than just push us through the process. Pretty average breakfast with a wide selection of hot teas to choose from. My only complaints would be that the side of the property facing the freeway is pretty loud, even during the night, but a good way to get around that would to simply request a room on the other side. Overall a wonderful place. Will definitely stay again.More</t>
   </si>
   <si>
+    <t>DoctorJoe_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r415838914-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -726,6 +804,9 @@
     <t>Spent two night at the Fairfield Inn at the end of August 2016.  Very pleasant people at the front desk and excellent breakfast.  Rooms are minimal, but very clean.  Bathroom door was always in the way-strange room design.  Our room was very close to the freeway (south end of the building) and very noisy even at 4am.More</t>
   </si>
   <si>
+    <t>Melanie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r415385919-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -762,6 +843,9 @@
     <t>Stayed here for business for 12 days. Very good location clean rooms but the best pro is the front desk staff. Very friendly knowledgeable of the area. They have a shuttle to drive you within 5 miles. There are restaurants with in walking distance but many with in a few miles. The breakfast is the usual hotel breakfast. Easy to fine right off highway 5. Ask for a room on the mountain side for a nice view More</t>
   </si>
   <si>
+    <t>Rhoda D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r409799339-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -786,6 +870,9 @@
     <t>The hotel is clean.  Front Desk employees very accommodating.  Rooms are fair and clean. Bathrooms a bit aging. To me it appears that all needs to be freshened up and could use some updated decor.  The location is a bit strange as one drives through the side of a gas station and a mini-market. Good for short stays, business appointments, etc.More</t>
   </si>
   <si>
+    <t>Dan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r404340741-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -801,6 +888,9 @@
     <t>Located off the freeway which is very convenient plus 2 gas stations in front of the hotel. Another exit down the road is a nice shopping mall.The room was basic with tv, iron, iron board. Bathroom a bit small but good. Breakfast was ok with nothing special. Overall was a good stay.</t>
   </si>
   <si>
+    <t>wannavisitnow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r388799397-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -819,6 +909,9 @@
     <t>Three of us spent one night. I downloaded the Marriott app on my phone and was able to "check in" and tell them we would be arriving sometime after 10pm. I was in doubt they'd have a top floor room since the parking lot was pretty full, but that wasn't a problem at all. Grabbed a cup of lemon water and hot chamomile tea before heading up the elevator. Put on the air and all was quiet, just how I like it.  Breakfast was buffet style scrambled eggs, bacon, potatoes, make your own waffle, cereal, coffee, etc. Front desk folk were very nice and helpful..    Beds for two people a little on the small size, but  they are advertised as double, not queen which I was aware of. Bathroom nice and clean, real bath towels are always a plus, and plenty of hot water for the shower. All in all, for our one night on the road, it worked out great. Also couldn't be easier to get off and on the hwy.   Would certainly stay here again.More</t>
   </si>
   <si>
+    <t>dziran</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r375285934-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -837,6 +930,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Kimberly L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r375194437-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -852,6 +948,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>MAbelini</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r365907394-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -876,6 +975,9 @@
     <t>I chose this hotel because I was visiting relatives who live in Leguna Niguel and this was very convenient to their home.  I was pleased with my accommodations. I got the AAA rate and it averaged $100 per night which was reasonable for the area.   I spent 4 nights and had a room with 2 beds.  Rooms were clean and had the usual amenities.  There was really no view from my room - overlooked the parking lot.  The hotel is very convenient to the highway.  It is set back behind a gas station so you have to look carefully to find the driveway, but the traffic lights make it easy to cross the wide road when entering and leaving.  There is a complimentary breakfast with all the usual offerings for this type of establishment  (apples for fresh fruit, yogurt, dry cereal, bagels, other breads and muffins, coffee and tea, as well as some hot options). Certainly a plentiful assortment to fill you up and start your day.  The fitness center was minimal with only one elliptical, one bike and one treadmill.  I had to wait about 20 minutes to work out because the equipment was in use one morning.  The pool outside seemed nice although I did not swim. There was a free computer in the lobby that I was able to print my boarding passes from and the room had free wi-fi.   All in all, this was a comfortable...I chose this hotel because I was visiting relatives who live in Leguna Niguel and this was very convenient to their home.  I was pleased with my accommodations. I got the AAA rate and it averaged $100 per night which was reasonable for the area.   I spent 4 nights and had a room with 2 beds.  Rooms were clean and had the usual amenities.  There was really no view from my room - overlooked the parking lot.  The hotel is very convenient to the highway.  It is set back behind a gas station so you have to look carefully to find the driveway, but the traffic lights make it easy to cross the wide road when entering and leaving.  There is a complimentary breakfast with all the usual offerings for this type of establishment  (apples for fresh fruit, yogurt, dry cereal, bagels, other breads and muffins, coffee and tea, as well as some hot options). Certainly a plentiful assortment to fill you up and start your day.  The fitness center was minimal with only one elliptical, one bike and one treadmill.  I had to wait about 20 minutes to work out because the equipment was in use one morning.  The pool outside seemed nice although I did not swim. There was a free computer in the lobby that I was able to print my boarding passes from and the room had free wi-fi.   All in all, this was a comfortable hotel in a location that was ideal for my needs.More</t>
   </si>
   <si>
+    <t>mbf1128</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r358698916-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -891,6 +993,9 @@
     <t>Recently spent 3 days at the property.  It was convenient to the highway, very clean and the staff was very helpful and pleasant.  would definitely stay at the location again and do recommend it if you are in the area.</t>
   </si>
   <si>
+    <t>Douglas L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r352633222-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -906,6 +1011,9 @@
     <t>I frequently stay at the Fairfield Inn Mission Viejo for business travel and the staff there is excellent and friendly.  Imelda personally handles my room reservations, Melanie, Connor and the rest of the front desk personnel are very professional and helpful with the check-in, check-out process as well as answering any questions I might have.  Diana does an excellent job with the morning breakfast providing a clean environment with warm fresh food.</t>
   </si>
   <si>
+    <t>ronbA3653TY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r348649265-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -928,6 +1036,9 @@
   </si>
   <si>
     <t>I am a Marriott Gold Rewards member.  I checked in for a week visit. Was given a room on the back, far end of the hotel, right above the I-5. Traffic noise all night long as the I-5 is NEVER quiet. Black-out curtains blocked light but not noise. The door fit so poorly in the doorframe that you could read from the light in the hallway and of course every sound in the hall came right through the gaps in the door. I asked several times at the front desk to speak to the general manager and was told he was not available. After I got belligerent I finally spoke to Gisela Barrera (Front Desk Manager) and she was 'surprised' to hear my complaints. I had been told by front desk staff the General Manager wasn't available and wouldn't be in that day at all. After speaking with the Front Desk Manager the General Manager, Moe Kasfy, suddenly arrived on the property and spoke to me. He also claimed not to have heard about my complaints and offered to change my room but I was checking out the next morning.Hell of a way to treat your frequent traveler members.  Maybe Marriott needs to get serious or cut Fairfield out of its group.More</t>
+  </si>
+  <si>
+    <t>AGoingGal</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r347014325-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -956,6 +1067,9 @@
 The lobby area of the hotel was nicely decorated and welcoming.  Coffee, tea and cocoa are available in the lobby 24 hours.  The rooms in this hotel are very small and in need of new furniture.  They include a huge cabinet that is the wardrobe/closet, dresser and holds the TV  (on a slide out tray - very old school).  When the TV is slid out the space to walk between the TV and foot of the bed is reduced to about 12". This piece of cabinetry was probably 6’W x 7’T x 2’D so it took up a lot of the available visual space on that wall. There is no space for a closet in the room so that is why they have the huge cabinet I guess.  The room would seem more spacious if they just had a hanging area for clothes and installed a flat shelf with drawers below that was integrated with the desk and ditched the massive cabinet.  Getting the flat screen TV out of this cabinet would be better too and they could then have a larger TV.  There are no refrigerators or microwaves in...As others have mentioned, the road to this hotel goes right between two gas stations.  The name of the road is Fairfield so it isn't too hard to find if you know what you are looking for.  If you aren't aware the entrance to the hotel is easy to miss.The lobby area of the hotel was nicely decorated and welcoming.  Coffee, tea and cocoa are available in the lobby 24 hours.  The rooms in this hotel are very small and in need of new furniture.  They include a huge cabinet that is the wardrobe/closet, dresser and holds the TV  (on a slide out tray - very old school).  When the TV is slid out the space to walk between the TV and foot of the bed is reduced to about 12". This piece of cabinetry was probably 6’W x 7’T x 2’D so it took up a lot of the available visual space on that wall. There is no space for a closet in the room so that is why they have the huge cabinet I guess.  The room would seem more spacious if they just had a hanging area for clothes and installed a flat shelf with drawers below that was integrated with the desk and ditched the massive cabinet.  Getting the flat screen TV out of this cabinet would be better too and they could then have a larger TV.  There are no refrigerators or microwaves in the room - at least they do have an easy chair. The bathroom was also small with limited vanity space.Breakfast was everything you expect at a Fairfield with no surprises.More</t>
   </si>
   <si>
+    <t>MinnesotaToot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r345993483-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -974,6 +1088,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>744bluelagoon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r338692966-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -989,6 +1106,9 @@
     <t>CUSTOMER SERVICE!!!The hotel staff is very knowledgeable, caring, and considerate.They are very friendly and very helpful.The Complimentary breakfast is very good. The rooms are very clean and the beds are very confortable.I feel Gisela and the whole staff really go the extra mile every time.</t>
   </si>
   <si>
+    <t>william Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r336280388-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1004,6 +1124,9 @@
     <t>We were in town for Christmas to visit family. This is a clean hotel and easy access to I-5. The staff was great and very helpful. It came with breakfast which was good and hot. The rooms are clean and quiet even though it is close to the highway. We will stay here again.</t>
   </si>
   <si>
+    <t>Joe P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r334606572-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1019,6 +1142,9 @@
     <t>Based on the location, I was initially unsure on this hotel. After all, you have to drive through two gas stations to get there. After arriving at our room, it was fresh, clean and quiet. The breakfast area was clean and had a very good spread. The fitness room was surprisingly large and clean. Absolutely no complaints here and they can probably even charge more.  This is a hidden gem.</t>
   </si>
   <si>
+    <t>acvitale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r327624005-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1040,6 +1166,9 @@
     <t>I do not normally expect a lot from a Fairfield Inn and I was surprised at how accommodating the staff and service was at this property. Check in was friendly, professional and quick. They put me in a room away from the interstate and it was an easy enjoyable experience. The room was clean and well appointed. Air conditioning was effective and quiet.One small note. Parking fills up so you may have a little walk and the hotel is located behind a Carl's Jr and Gas Station so a little hard to locate if you are not paying attention.I will definately use this property again if in the area for business.Great Stay!More</t>
   </si>
   <si>
+    <t>matt c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r324949328-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1058,6 +1187,9 @@
     <t>I stay at this location anywhere from 3-5 times a year and have done so for the past 3 years. I've stayed in rooms on various floors. This time I was put in room 135. I highly recommend avoiding this room. It is directly across from an electrical closet and near an exterior door to the building. I am not sure if it was employees coming in and out of the electrical closet OR guests coming and going through the exterior building door but this room was noisy! In the future I'll definitely stick with rooms from the exterior doors! Based on previous experience stay away from pool side/highway side, elevator and ice machines. It is a nice hotel. I recommend it but avoid these areas and you'll enjoy it more. I also want to mention the manager. Each time I've stayed I've seen the same guy and I think he's doing a great job. His staff are friendly and it's nice to see the same person running a place several years in a row!More</t>
   </si>
   <si>
+    <t>OCTraveler23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r322771481-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1076,6 +1208,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Andreas M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r317636881-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1094,6 +1229,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Kunal M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r315696286-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1109,6 +1247,9 @@
     <t>The main reason for me to go here over and over again is because of the great customer service. Connor, Melanie and Gisela are awesome at treating you the way you should be treated as a valued customer. The rooms are a little old but it is good for the price you pay. Morning buffet is pretty limited and not so attractive but oh well. Good right off the freeway location which makes it easier to go to places. I will definitely recommend it to the people I know just because of the customer service.</t>
   </si>
   <si>
+    <t>Glenn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r315206041-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1133,6 +1274,9 @@
     <t>I was just there over night however the stay was nice. Room were clean, they were training staff at the front desk so I was delayed a bit but it was OK.Close to the freeway but not too much noise. A pretty good continental breakfast in the morning.More</t>
   </si>
   <si>
+    <t>JAYTRAVEL1958</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r311038710-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1154,6 +1298,9 @@
     <t>You know those amusements rides where, after you have completed it, they funnel you into the ride's gift shop? Well, getting to this F.I. reminded me of that, except that instead of a gift shop you have to make a sharp right ( make sure you signal) into a gas station and down a ramp to get to the property. You CAN miss it and wind up on I-5 (as I did) and have to circle around winding up on the opposite side of the street however upon approach. I laughed out loud. Hey, but when your on your way to the airport ( half way between SNA and Dana Harbor) you can fill up your rental without the proverbial search for one before returning it. Convenient. The hotel has no sundry so the gas station doubles as late night snack haven. Other than no safe in the room it was status quo all the way with a great breakfast and great staff. If your staying in the Harbor/Dana Point area look up the Laguna Hills Marriott. I took a self guided tour. Opulent property. I will next time in town.More</t>
   </si>
   <si>
+    <t>Kyleen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r307950253-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1169,6 +1316,9 @@
     <t>I chose this hotel for proximity to Mission Hospital where I was scheduled to have cancer surgery. When the staff found out the reason for my stay they went up and beyond to make sure I was comfortable and that I had everything I needed.  Kyle even surprised me by delivering me a bouquet of flowers that had been dropped off making sure I received them right away.  The compassion and kindness from the Fairfield Inn staff really helped me through this difficult time..Fairfield Inn Rocks!</t>
   </si>
   <si>
+    <t>CS H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r307014295-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1187,6 +1337,9 @@
     <t>Good room, convenient location, all good - but the service sets this hotel apart. Very professional and effective. Arriving late at night and very hungry, the very busy desk clerk offered a comprehensive list of nearby restaurants, and free :-) shuttle to take me there, though it couldn't pick me up because the shuttle doesn't run after 9:30pm. The shuttle driver was courteous and efficient and he gave me the hotel card, suggesting that that a cab might come for me faster if the hotel called on my behalf. Note: There are a lot of very good things about this hotel, as good as it gets for a hotel of this kind, but I hold that 5th star for an extraordinary hotel.More</t>
   </si>
   <si>
+    <t>DrConni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r305183540-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1205,6 +1358,9 @@
     <t>Fairfield Inn Mission Viejo is very centrally located to reach Irvine to the North or San Juan Capistrano to the South. You can locate beaches easily by going West on Crown Valley Pkwy and turning right or left on PCH. The Inn is tucked behind a gas station but worth the stay. Comfortable, nicely appointed breakfast room and two computer stations if you don't want to go to your room. Staff is excellent in providing for their guests, attentive to specific needs when necessary and making one feel special and cared for. Rooms are comfortable with great, back supporting beds, pool area is nice and parking is never a problem. This is the only place I stay in Orange County!More</t>
   </si>
   <si>
+    <t>Hamza K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r304512080-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1220,6 +1376,9 @@
     <t>My family and I recently stayed at this hotel for many nights and one thing I can say forsure is that, it was one of the nicest and most comfortable hotels I have stayed in. It is close to everything including malls and shopping centers. The rooms are very elegant and can comfortably sleep 4 people per room. I will forsure be saying here again!!!</t>
   </si>
   <si>
+    <t>Victoria K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r303864853-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1235,6 +1394,9 @@
     <t>Not a bad place to stay if you are in the area.  Rooms are average size, but are clean and well maintained.  Breakfast is included, and had good options including waffles which my kids love.  The pool area is nice as well.  Staff was very friendly and helpful.</t>
   </si>
   <si>
+    <t>joann1948</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r295741005-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1259,6 +1421,9 @@
     <t>Maurer Technical Services conducts training sessions monthly at the Fairfield Inn, MV. We are extremely pleased with the hotel and services. The staff is professional, kind and always willing to accommodate our business needs. The meeting room is clean, coffee and water is always in place and the equipment is working properly. The meeting room is equipped with the latest in presentation equipment. There has been times when we needed printer paper and the staff quickly filled our needs. The manager is Greg Mahone.  He is warm and friendly and  quickly offers assistance. Imelda is friendly and anxious to please. The staff is why we have done repeat business with them for more than 9 years.More</t>
   </si>
   <si>
+    <t>Deborah G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r294719297-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1274,6 +1439,9 @@
     <t>Went to OC fair about 15 miles from hotel. Location good right off fwy.Staff very friendly and went out of their way for us.Breakfast was better thanMost for quick easy breakfast and lots of tables for seating.</t>
   </si>
   <si>
+    <t>gina1230</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r293829945-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1301,6 +1469,9 @@
     <t>The location of this hotel is very convenient it's close to freeway but we had no problem with noise.  There are lots of restaurants nearby and convenience stores. The hotel was full all weekend but at no time did I feel like there were lines anywhere and hotel looked clean at all times.  We asked for our room not to be serviced but the housekeeping were so nice and asked us if we would like anything extra.  More</t>
   </si>
   <si>
+    <t>Sam J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r288926123-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1319,6 +1490,9 @@
     <t>A little difficult to see the first time when looking because it is located behind a gas station and convenience store but well worth staying here. The rooms are big, roomy and kept very clean plus everything is in working order as it should be. The mattresses and cushions are EXTREMELY comfortable. The parking lot is well lit for safety. The variety of the breakfast buffet is more than adequate with good tasting food. The room rates were VERY good for what I understand goes in this area. The Front Desk people are so friendly and helpful especially BRITNEY. She is an absolute joy to work with in friendliness, helpfulness, professionalism and competency. Colin is also exceptional. Would definitely stay here again when in this area.More</t>
   </si>
   <si>
+    <t>dbl60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r285650259-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1334,6 +1508,9 @@
     <t>Our out of town guests stayed here, for our daughters wedding in San Juan Capistrano. The Rep Imelda and all the team were simply awesome. Very professional and all special needs were taken care of. The rooms are very reasonably priced for Orange County and the hotel is strategically located for easy freeway and beach access. The rooms and property are nice and clean.</t>
   </si>
   <si>
+    <t>Robert T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r283012452-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1352,6 +1529,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>april-likes2travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r282105979-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1370,6 +1550,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>jpack5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r271702149-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1397,6 +1580,9 @@
     <t>Stayed here during a business trip and loved the convenient location. The hotel exterior is a little dated, but I can tell that they tried to 'modernize' the rooms/lobby inside. The lobby area is large and spacious and they offer a very basic (kind of disappointing breakfast buffet). Service was terrific. The room was clean and comfy, but the carpet seemed dingy and dated. Also, if you're traveling with someone/sharing a room - THE BATHROOMS DO NOT HAVE A FART FAN, ha.More</t>
   </si>
   <si>
+    <t>Dave E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r271433115-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1415,6 +1601,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Larry-OOOO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r262966600-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1433,6 +1622,9 @@
     <t>My stay was awesome. I visited Mission Viejo for business and had to say thanks to the staff it felt just like a vacation. At check in, Britney was spectacular. Smooth check in, super fast and friendly. Kylee and Collin were also attentive. Manager Gisela was courteous and available at all times. Idalia and other lady in cafeteria/breakfast were great and worked very hard to maintain the area clean (people could be so dirty). Facility was also very clean and Maintenance Man assisted me with a rope I needed at last minute.I am very observant when I visit Hotels, Restaurants or any business in general since customer service is something that should come naturally, just like all the above-mentioned! I will definitely consider staying here again but next time It will be with my family.More</t>
   </si>
   <si>
+    <t>Enjoyab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r262111013-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1448,6 +1640,9 @@
     <t>This was a very comfy, roomy &amp; clean hotel. Had everything we needed, pool, workout room, complimentary breakfast ( great variety). The staff were very friendly &amp; eager to please. Our family had several rooms &amp; everyone was very pleased.</t>
   </si>
   <si>
+    <t>RoadWrangler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r261180795-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1470,6 +1665,9 @@
   </si>
   <si>
     <t>The staff was nice but check in and out was painfully slow.Our room was dark with limited lighting. The bed was comfortable enough, and had two feather and two non-feather pillows. There were no power outlets at the nightstands, unfortunately. Hotels really need to get modern and have power hubs on each nightstand.The shower/tub combo had some mold, unfortunately. The water pressure was low, but the hot water stayed hot.The free WiFi was strong. The free parking lot is large and open-air. For the ridiculously slow check in &amp; check out alone I might consider looking to stay elsewhere the next time I'm in town.More</t>
+  </si>
+  <si>
+    <t>NjoyTravelingNj</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r255982865-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -1499,6 +1697,9 @@
 Location: Although it is close to the 5 freeway, we did not think the noise was an issue.  In fact, we couldn't hear any freeway noise from...We stayed here two nights while visiting family in the area.  The hotel is very clean and nicely decorated. The front desk people couldn't have been nicer or more helpful.  The rates were very good, especially having a AAA discount.  It also has a decent breakfast.  Since I eat gluten-free, it was nice that there were eggs, sausage or bacon and fruit instead of just having cereal and pastries.  The food was replenished as soon as it ran out and the breakfast area is roomy.  The rooms are clean and nicely decorated, but our room was small; we had requested a king and there is not much room when the bathroom door is open, but we were basically there to sleep, so it was ok.  The bed and pillows were very comfortable.  There was a coffee maker and hair dryer, pretty standard stuff, but no refrigerator (we didn't need one).It was too chilly for me to use the pool, but my husband did, and he said that is was clean and warm.  The pool area had a nice set-up of loungers, chairs and tables.  we used the fitness room and it was pretty basic… some free weights, a weight bench, and a few machines (bike, treadmill).  Small, but it does the job.Location: Although it is close to the 5 freeway, we did not think the noise was an issue.  In fact, we couldn't hear any freeway noise from our room.  Just a warning….it is vey tricky finding this place and the signage is small.  There is a traffic light at a fast station/mini-mart mini-plaza and a small green sign on the traffic light pole above that says "Fairfield Inn", but we didn't see it the first time and it was confusing.  The hotel is down a small hill after you go through the gas station area, and it is barely noticeable from the road, Oso Parkway.  To use the 5 freeway, when leaving the hotel if you wish to go south, you have to turn left at the light and to go north, you have to turn right.  It took us a few times to get this right.  Same with getting off the freeway.  Once you have mastered the ins and outs of traveling to and from the Fairfield, everything else is peachy!More</t>
   </si>
   <si>
+    <t>horse54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r255456851-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1532,6 +1733,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Traveler101317</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r248872335-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1550,6 +1754,9 @@
     <t>We stayed Dec 29 at the Fairfield Inn San Juan Capistrano and we loved it. My daughter had a mission report and it was conveniently located, 2 exits from the hotel. The only thing about the hotel is that the entrance to it comes up fast off the exit. It's located behind the gas station and if you blink you'll miss it. I used Waze on my phone and it was pretty accurate but didn't prepare me for the immediate turn to the entrance. The lobby was modern, spacious, clean layout, plenty of outlets for electronic devices. We had room in the back because I thought there would be road noise.   The beds were great, pillow topped and thick comforters. The gym was small but did the job. It had a treadmill, recumbent bike and dumb bells. Breakfast was good too. Eggs, Belgian waffles, juice, sausage, oatmeal, pastries, and cereal.I would definitely bring my family back here. More</t>
   </si>
   <si>
+    <t>Barry L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r244145103-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1565,6 +1772,9 @@
     <t>Nice hotel with newly remodeled rooms and lobby but the noise from the Freemay was just too much. If you do stay here asked for rooms on the other side away from the freeway. Staff is friendly and helpfulbreakfast is your typicalfree type. We're staying here in the center of action but bring your plugs</t>
   </si>
   <si>
+    <t>Veronica W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r238348078-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1583,6 +1793,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>neecee23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r234810135-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1601,6 +1814,9 @@
     <t>The only reason I gave this hotel 4 stars instead of 5 is because the room does not have a refrigerator or microwave. Otherwise this is a great hotel. Check in was super fast, staff was courteous and friendly, checked in late and had no problems. We had a king room next to the elevator. Room was very clean and large enough with a king bed and sofa, very comfortable and quiet, could not hear the elevator. Convenient to the I-5 freeway and next to two convenience stores. Breakfast was good and the eating area very comfortable. It would also be nice if coffee and hot water were available more than just morning hours. All in all a comfortable stay.More</t>
   </si>
   <si>
+    <t>Pau L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r226662763-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1622,6 +1838,9 @@
     <t>My daughter had cheer camp in San Juan Capistrano and this is the place the staff chose for all the girls to stay.  It was supposed to be the cheapest in the area.  It wasn't really cheap and I don't get why it was so expensive. I think you pay cheaper in Vegas and Vegas actually has things to do.  Mission Viejo is pretty boring so the rooms should be cheaper.  Anyhoot, the hotel was nice, the staff was super nice and the rooms were ok.  A bit small but nice and clean.  Except for the bathroom sink, it had a bad odor coming out like sewer water.  We literally had the pool to ourselves the first day so that was awesome. My little one enjoyed the whole pool for hours.  Breakfast was pretty good too.  It was a nice experience and would stay there again if I HAVE to go back to that city.More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r224849406-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1640,6 +1859,9 @@
     <t>Fairfield Marriott Inns are a favorite of mine and this one is no exception. The checkout time of 12:00pm is one of the reasons for this love as I am not a morning person. Speaking of morning, their breakfast is pretty good. Sausage or bacon. Cereal, yogurt, waffles and toast. All you can eat. Make a plate and take it back to your room or eat in the comfortable dining area and watch TV. The kids loved it. The rooms have the single unit air conditioners that lull me to sleep and make the room feel like a meat locker or a sauna depending on your temperature preference. The maids were excellent despite my children's best efforts to trash the place. The pool was decent and a great place to take a dip after the salt water and sand of the ocean and beach. It's right off the freeway behind 2 gas stations and does not have a major sign to point you in besides a street sign that says "Fairfield Inn" so use your GPS. I highly recommend staying here especially for the good price. More</t>
   </si>
   <si>
+    <t>TexasTravelette</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r215595996-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1658,6 +1880,9 @@
     <t>Stayed in July.  The hotel is in the middle of some pretty serious road construction on Oso Pkwy, but is convenient to I-5 North.  It is an extremely clean hotel -- one of the cleanest I have been in.  The accomodations are basic -- this is not a fancy hotel -- but they were quite sufficient especially for the price.  The first night, power went out, presumably from the road construction as other businesses outside the hotel were also without power.  Luckily the window in the room opened just a bit, providing fresh air.  We were provided with glow sticks for the night.  The power came on early the next morning, JUST in time for a shower and preparation for work.More</t>
   </si>
   <si>
+    <t>rajaram83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r210757072-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1676,6 +1901,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>photowil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r204216485-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1694,6 +1922,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>patricia d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r199711262-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1713,6 +1944,9 @@
   </si>
   <si>
     <t>Stayed there on a business trip, Staff very professional and made it a point to Greet and Welcome every guest or greet you accordingly. Entire hotel and rooms are very clean and comfortable. Everything was in working condition. The only thing one has to ask for Micro/fridge unit if needed. Not included in the rooms. Breakfast was the usual, the attendant was  friendly and was attentive to refilling the items as needed! This particular stay the breakfast room was quite busy. Found out the hotel was almost entirely booked due to a wedding and other function/events.The cute part is as one enters the parking lot towards the back you see a bunch of Bunny Rabbits hip hopping around the landscape. Hotel is off the I-5 fwy........but quiet. It sits above a slight hill above the freeway. in between 2 Gas stations, But no noise from the businesses can be heard.More</t>
+  </si>
+  <si>
+    <t>Keeton K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r198849097-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -1737,6 +1971,9 @@
 The complimentary breakfast was OK and typical of hotels that have free breakfasts - pre-made scrambled eggs, sausage or bacon and make-yourself waffles for hot options and friuts, breads and yogurts for cold options.  There is not many other dining options in the immediate area...I stayed here on a recent business trip and picked this hotel because it was the lowest price Marriott branded property in the area.  The hotel is located right off the 5 freeway and sits behind two convenience stores which made it a wee bit hard to find.  When I checked in, the hotel was almost full so I was given an accessible room.  Accessible in this case meant that the bathroom was larger with a lot of grab handles.The bed (a king) was comfortable and had actual king size pillows.  There was no closet to hang your clothes but there was a rather tiny armoire instead.  There was a work desk but it was right in front of the A/C unit (drafty!) and had only one outlet (phone or computer, not both).  That A/C unit had a rather noisy compressor when it cycled on.  The TV got about 30-ish channels and a few were in hi-def.  The wireless internet speed was pretty good when I measured it, but when I had to download a large file from the office it was considerably slower, but still above average which was good for doing work.The complimentary breakfast was OK and typical of hotels that have free breakfasts - pre-made scrambled eggs, sausage or bacon and make-yourself waffles for hot options and friuts, breads and yogurts for cold options.  There is not many other dining options in the immediate area unless you like convenience-store snacks.More</t>
   </si>
   <si>
+    <t>Dunedin6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r197897173-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1752,6 +1989,9 @@
     <t>I was able to book this hotel well in advance and boy am I  the rate that I got.  The hotel is very well run.  The front desk staff goes out of their way to be helpful.  The pool is gorgeous.  Hot tub, hot. Free breakfast seven days a week.  Very clean property.I had some difficulty locating the entrance to the property.  The driveway is situated between 2 gas stations directly off the 405/5.  I will be staying here again.</t>
   </si>
   <si>
+    <t>Traveler29105</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r194273865-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1767,6 +2007,9 @@
     <t xml:space="preserve">Had an event at country club up the street so location was great.When we checked it we were given a first floor room next to the freeway.  Way too noisy... But they were nice about making a change. Tons of soccer kids at breakfast ... No place to sit! </t>
   </si>
   <si>
+    <t>user99999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r193009226-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1809,6 +2052,9 @@
     <t>I always stay at this hotel when I work in this area.It is very clean quiet for a great nights sleep with comfortable beds. But the best is the front desk I stayed there 12 nights and every night when I returned they acted like they were so happy to see me.They are great with directions etc.It is in a great location next to shops of Mission Viejo and many great restaurants right off highway 5.It is 20 minutes  from John Wayne airport. They do have a complimentary breakfast but nothing special. It is close to Laguna Beach and San Juan Capistrano.</t>
   </si>
   <si>
+    <t>RSquared_SD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r182974890-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1830,6 +2076,9 @@
     <t>My one night was great.  Easy check in and the room was updated and clean.  The bed was comfortable and all the amenities in the room were in working order.  The room was on the small side, but I was by myself, so that did not cause any issues.  I am sure they have larger rooms is more guests are needed per room.  I went down to the lobby for breakfast at 9:30.  I noticed the sign that said breakfast was from 6 - 9.  They were cleaning up, but there was still some items left out and they was no issue with me grabbing a couple of items and taking them to my room.More</t>
   </si>
   <si>
+    <t>BruceGordon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r177785685-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1851,6 +2100,9 @@
     <t>We just finished a very pleasant weekend stay at this hotel.  All staff members were customer focused and very friendly.  The front desk staff greeted us and always offered assistance as needed.  The staff member taking care of the breakfast area always had a smile and friendly word.Breakfast in this location is included in the room rate and it was a cut above other similar hotels, including waffles and different hot entrees each morning.  The room was quite comfortable with new bedding, a usable work area and flat screen TV.  While not large, it's laid out very well.The location is right off the 5, but we didn't hear any traffic noise at all. Overall, a great and convenient place to stay.More</t>
   </si>
   <si>
+    <t>mimiz10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r175898788-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1869,6 +2121,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Mavis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r173561647-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1887,6 +2142,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>M P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r172893441-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1902,6 +2160,9 @@
     <t>Stayed for three nights this past week.  Very clean room and building exterior. Ample lighting in the parking lot. Breakfast was good with scrambled eggs, breakfast meat, cereal, juice, coffee,and more. Slept well each iChat which is unusual for me as I have a hard time sleeping in a strange bed.  Would recommend the place to anyone staying in the area.  Close to I-5.  Starbucks is just next door and plenty to eat within a five mile radius.</t>
   </si>
   <si>
+    <t>Terrell_msp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r171900383-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1917,6 +2178,9 @@
     <t>Nothing special about this place, rooms were clean and I did sleep well.Breakfast wasn't completely out at the advertised 6 AM start on Monday morning, they did have a waffle maker and scrambled eggs as hot food.  Juice machine was marked as "out of order."I'm not sure why they would choose to have the rather politically charged Fox "News" on the television in the breakfast room, a neutral outlet would be more appropriate.Beware of the 2 gas stations that border the driveway, the gas station customers seem oblivious to the fact that they are in the hotel driveway.Next time I'll look for somewhere else to stay.</t>
   </si>
   <si>
+    <t>longingforord</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r165081095-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1932,6 +2196,9 @@
     <t>Really hard to find, completely hidden behind 2 gas stations. Look for the green street sign "Fairfield Inn" and pull behind all the gas stations. Really unpleasant staff, everything seems to be too much of a bother for them. "No" seems to be their favorite word. Hotel is clean, double bed is barely a full size. Breakfast is 6:00-9:00am, so if you are on holiday or want to sleep in, not available for you.Only stay here is Mission Veijo is your destination.</t>
   </si>
   <si>
+    <t>QinKY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r158883506-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1947,6 +2214,9 @@
     <t>I have been staying here for the last three years because it is convenient for work.  The entry has been completely redone.  The room I stayed in was remodeled as well.  Breakfast area has expanded almost twice the size.  Was able to conduct a business meeting (three people) with no issues. Employees are friendly and helpful.  I'll stay here again.</t>
   </si>
   <si>
+    <t>YpsilantiFoodie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r158630860-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -1963,6 +2233,9 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>Staidthere</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r155591114-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -1988,6 +2261,9 @@
 Breakfast in the area by the lobby was very nice with hard boiled eggs, cereal, juice, yogurt, bananas and apples, and a very pleasant maintenance lady. They had many different kinds of tea. Free coffee and tea were available throughout the day for guests in the breakfast area, which was a big plus.  They let us check out an hour late at 1 pm.  The check-in and check-out was...We returned to Fairfield Inn because of a positive experience last year and because it was in a convenient location with plenty of free parking. We were aware that there would be no refrigerator in our room, so I went out to get ice and found that the ice machine on our floor was broken.  I encountered another guest who was looking for ice, so we took the lift to the ice machine on the third floor. In the lift, we met a janitor bringing a refrigerator to another room.  The wi-fi in our room worked very well, there was a complete set of toiletries, and we had no problem with traffic noise.  We had a room with a king sized bed with famous Marriott pillows.  There were good channels on the TV.  We did have to hunt around for electrical outlets, and we wound up using the one on the desk, one by the floor, and the one in the bathroom because we have to charge a lot of devices.  Breakfast in the area by the lobby was very nice with hard boiled eggs, cereal, juice, yogurt, bananas and apples, and a very pleasant maintenance lady. They had many different kinds of tea. Free coffee and tea were available throughout the day for guests in the breakfast area, which was a big plus.  They let us check out an hour late at 1 pm.  The check-in and check-out was most pleasant and cordial.   We feel this was a very good value considering that the price was highly competitive on a week night.More</t>
   </si>
   <si>
+    <t>JUDITH S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r154546978-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2009,6 +2285,9 @@
     <t>I was concerned that this would be a noisy place to sleep as it's ingeniously built in the armpit of the off-ramp by a major freeway. However, once on the property it felt like we were in a secluded California park! At dusk, we were greeted by a family of bunnies on the west lawn. It told me if they trusted their brood there - we could too! Inside our room was quiet and clean. Just what weary travelers want. Our 1st morning breakfast I was perturbed to see all the oatmeal was gone and most other food was wiped out. (Not to fault the hotel since there were several cheerleading teams getting energized that morning.) It was nearly time for the breakfast to be cleared away - yet staff brought out fresh supplies of everything needed to keep everyone happy!   The staff was quick, friendly and professional at every encounter from maids to kitchen to front desk. High Ratings Fairfield Inn!!    The only thing missing was access to the pool and spa - since it was under repairs. Parking was plentiful and travel in and out was convenient to all our TO-SEE's in the area. Yes, highest recommendation - we would stay there again!More</t>
   </si>
   <si>
+    <t>TechMarauder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r154476934-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2024,6 +2303,9 @@
     <t>The hotel is fresh and very welcoming.  I received outstanding service from the front desk staff as well as the maintenance gentleman who delivered a micro fridge.   The rooms are clean, new, modern, and very comfortable.  The wifi works well, HDTV, convenient parking and right off I-5 and only 15 minutes from John Wayne airport.   This is a great choice in the OC.</t>
   </si>
   <si>
+    <t>Brian S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r150674224-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2039,6 +2321,9 @@
     <t xml:space="preserve">I won't bore you with details on the room.  It was a typical very nice Fairfield inn with large bedding, large big screen TV and large bulky furniture.  It was clean nd what I expected.  The only draw back is the hotel is close to the freeway.  I could hear road noise inside the room, luckily I had flown in from Atlanta and it did not disturb my sleep.  It may however disturb another guest.  If you are a light sleeper you may want to ask for a room farther away or choose another. </t>
   </si>
   <si>
+    <t>Chickig</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r150517888-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2075,6 +2360,9 @@
     <t>Since the last time I was here last year this hotel has been completed renovated. They even gutted the lobby and made a new breakfast room and business office. Same breakfast as other Marriott's but boiled eggs instead of scrambled. The fron desk is the best everyone is friendly and knowledable with directions. I stayed there 14 days and they made me feel like family. It is very clean and the house keepers are the best. But they are kind of stingy with the coffee but the coffee in the lobby and room are delicious.</t>
   </si>
   <si>
+    <t>Key_West_visit_1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r148054680-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2091,6 +2379,9 @@
   </si>
   <si>
     <t>December 2012</t>
+  </si>
+  <si>
+    <t>comerharris</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r147348453-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -2157,6 +2448,9 @@
 We felt the...We stayed one night at Fairfield Inn in Mission Viejo. They were remodeling, so it was pretty loud during working hours. Most of the people that we saw walking through the lobby were wearing hard hats. We were in room 506 with a view of the highway ramp (but no highway noise unless the window was open). They had a room for us when we checked in at 11 a.m.Plus•	Large screen TV, good channels•	Wi-fi was reliable, although we had to accept the terms of service and enter the password every time we went on line•	Breakfast was pretty good with hard boiled eggs, cereal, Danish, waffle-maker. They had to use three guest rooms for breakfast because the breakfast area was being renovated•	We had a room with a king-sized bed with small but sufficient space•	The staff were especially friendly and apologetic about the renovations•	Location at highway 5 and Oso Parkway is so central that I suspect they'll raise their rates when the renovations are complete•	Lots of space for parkingMinus•	When we entered our room, we found that someone had urinated in the toilet but had not flushed it. Made the stay less-than-excellent.•	No refrigerator•	Only two electrical plugs available in the room and two in the bathroom for charging devices•	Air conditioning was noisy, but it didn't bother usWe felt the Fairfield Inn was a good deal, fully worth the price that we paid on a Monday night, and we recommend it for its friendly and no-frills value.More</t>
   </si>
   <si>
+    <t>River Grill M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r135749701-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2178,6 +2472,9 @@
     <t>We visited friends in San Juan Capistrano and we wanted to find a hotel that was close but not too expensive. (Hotels in San Juan Capistrano are few and over priced!) Fairfield Inn is only 10 minutes away and easy access to I-5!  Great customer service from front desk, continental breakfast server.  I also noticed they always had someone cleaning the grounds around the hotel!  We were on the 5th floor in a renovated room.  Room was spotless; beds were comfortable.  Pleasantly surprised with continental breakfast options!  Offered more than expected!  Very much worth the price paid for the hotel room.  Hotel is also close to quite a few golf courses--within 10 minutes of hotel!More</t>
   </si>
   <si>
+    <t>bltholmes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r135632668-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2193,6 +2490,9 @@
     <t>We came in at midnight with tired kids so we appreciated that the front desk person was very accommodating and efficient. The room rate was more than fair and the room itself was very clean, very comfortable and the breakfast was perfect for our family. Would recommend this hotel as a perfect stop-over during a long trip!</t>
   </si>
   <si>
+    <t>SherryS111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r135028838-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2208,6 +2508,9 @@
     <t>Front desk staff were so helpful and welcoming here! Room was fine and fairly quiet even though it faced freeway and gas station. Pool area was nice, just lacked towels (but there were a ton of people there and towels were likely a hot commodity).  Room very clean. Breakfast was pretty good too. As we were there with a large contingent of lacrosse boys, everyone was very tolerant and helpful...even made sure we could grab something for breakfast VERY early!</t>
   </si>
   <si>
+    <t>FrankieRu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r131834190-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2229,6 +2532,9 @@
     <t>I stayed here for 2 days, 3 nights and was pleasantly surprised.The room was small and had no fridge, but it was clean and modern. The hotel property is nice, and the staff were very friendly.The location also served us nicely as we were visiting friends in San Juan Capistrano. Traffic conditions on the I-5 may vary, but we were able to drive to Los Angeles and Anaheim within 45 and 25 minutes respectively.I enjoyed the continental breakfast, but if you don't like waffles, sweet pastries/doughnuts, and cereal for breakfast, then you will be disappointed.There are two gas stations/convenience stores located directly adjacent to the hotel.I didn't use the pool, but it appeared clean and well-maintained.I'm not a light sleeper, but if you are, you may find it difficult to sleep as the freeway (and endless sound of traffic driving by) is very close to the property.I would definitely return.More</t>
   </si>
   <si>
+    <t>twinmom8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r131224778-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2245,6 +2551,9 @@
   </si>
   <si>
     <t>Stayed here because my son's soccer team had a game in the area.  Location is great, right off the I-5 freeway but hard to find tucked behind a Carls Jr. and 76 gas station.This must have been another hotel before it became a Marriott.  The layout in the font area was small, the business center &amp; gym are in the same room, and the buffet area doubled as the lounge area.  With all that Marriott delivers, they tried to do in a building that just wasn't an original Marriott.  The staff is great, no problem checking in or out. The room were adequate, but dark.  They had alot of lamps in the room, even a little table size lamp on the armoire (no closests) that seemed out of place. The beds were hard, and the towels quite worn. Luckily they are under construction and is getting a much needed upgrade. This was okay for a one night, might be better after the renovation.More</t>
+  </si>
+  <si>
+    <t>Kathy P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r128429720-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -2278,6 +2587,9 @@
 Now those beds.  If you like sleeping on a box spring mattress and don't mind the stains, well this is the place for you.  Springs feel like they are coming out of the sides, stains on the mattress and just plain hard.  I should...First the staff are wonderful.  The breakfast was okay and the seating area colorful.  The poor staff do what they can to make it nice.  Who ever thought bumpy tile was good to use in a hotel should be reprimanded.  When the staff moves carts over the surface it is VERY loud.So the breakfast, the poor staff need a redesign for the space.  Cords running through stupid shutters on the wall.  Just some fruit, cereal, coffee, tea, waffle makers, milk, juice - nothing fancy but fresh.  Did I mention the staff was very nice?The reception area is also poorly designed.  Staff have to run wires for their PCs through those stupid design shutters.  I mean it looks like it was last retrofitted before computers.Over all the hotel was clean except how can they keep it very clean if there is construction?  I wasn't there during the day so don't know if it was loud or not.Rooms are suprisingly quieter then expected.  Although you get a little road noise the real noise comes from those outdated fan coil units (heat/ac units).  Mine rattled and carried on all night.  They don't have thermestates (sp).Now those beds.  If you like sleeping on a box spring mattress and don't mind the stains, well this is the place for you.  Springs feel like they are coming out of the sides, stains on the mattress and just plain hard.  I should have slept on the floor but the rooms are so small with a king bed that is was almost impossible.The bathroom was roomy but just like everyone else - those towels were very VERY thin.  I didn't try the pool but it was very clean.  Nice sized hot tub.  Saw them right under my window.More</t>
   </si>
   <si>
+    <t>TexasO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r123886419-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2293,6 +2605,9 @@
     <t>This property is adequate - clean, close to freeway, poor sound insulation, low water flow, thin towels, behind a gas station, breakfast is included and they seem to have a good business, parking is convenient and secure. Stay away from rooms by the elevator - very noisy.</t>
   </si>
   <si>
+    <t>businesstycoon16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r123747912-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2311,6 +2626,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>HappyTraveler01534</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r123268610-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2332,6 +2650,9 @@
     <t>We had a very clean room with pretty comfortable beds on the 4th floor. We had asked for a high floor and were told the 5th floor (top) was under renovation.  We had also asked for quiet room and were told it was a quiet location and since the entire hotel is near the 5 it worked out well. We could hear some traffic, but not enough to matter.  There was free wireless, Internet throughout the hotel that worked well.  There were also 2 computers with very slow Internet in the same room as the gym, which had newer looking equipment and we never saw anyone using any of it in the 4 days we were there.  The hotel is in a strange location, behind two gas stations, but very, very convenient for everything we wanted to see and do.  The breakfast was pretty standard and with a lot of holiday travelers the breakfast area did get crowded, but it was nicely decorated and pleasant.  Service overall was above average.More</t>
   </si>
   <si>
+    <t>NorCal_ds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r117376700-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2350,6 +2671,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>travelinpdx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r115287873-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2365,6 +2689,9 @@
     <t>I don't have a gripe about the noise like many others have but I do feel I was somewhat taken advantage of.  I spent $129 for a night there last night and I know I'm the one that chose to stay there but looking back on it I just feel like I didn't get $130 worth of value...Breakfast options were fairly limited too...  Not sure if I'll stay there the next time I'm in town...  If it was $89 per night, I'd be all over it. :)</t>
   </si>
   <si>
+    <t>hotelrvwr_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r115265173-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2380,6 +2707,9 @@
     <t>The room was just okay. Not much room to walk around in. And the bed was too hard.The shower was fine. The tv channel selection was good too. And the towels were too thin. Other than that,the room was good.</t>
   </si>
   <si>
+    <t>missmeghan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r83373402-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2401,6 +2731,9 @@
     <t>We rented two rooms at the Fairfield Inn in Mission Viejo for my nephew's wedding in Dana Point. We got a very good rate of about $70-75 for each room and found the location to be very convenient. The hotel is right off of the freeway, easy to get in and out of. There was plenty of parking. It's a little bit of an older hotel, but well maintained. The hotel is probably 2-3 star, but very clean and the staff were very friendly and accomodating. For the price, I couldn't have been happier. My Mom and brother had the continental breakfast they put out, and I think they were fairly pleased. We didn't use the pool, but it looked nice.More</t>
   </si>
   <si>
+    <t>CoachHW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r65446348-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2419,6 +2752,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>bresni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r60003074-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2437,6 +2773,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>Magnum357</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r32981074-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2455,6 +2794,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>TravelerG8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r29164218-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2488,6 +2830,9 @@
     <t>Stayed 16 days on business. Front desk are the best so knowlegable with directions and friendly .They make you feel like family.It is a very clean hotel and there is aomeone always cleaning.They have a business offiice with 2 computers and they are in the exercize room so you it reminds you to exercize.They have a very nice free breakfast every morning. The restaurants are close by and many shopping centers in the area,!0 minutes from Laguna Beach and Newport etc.My favorite 10 minutes from the San juan Mission of Capistrano.</t>
   </si>
   <si>
+    <t>esu3sgt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r15483809-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2501,6 +2846,9 @@
   </si>
   <si>
     <t>Nice Hotel Friendly staff. Clean rooms. The ony downside is as usual the wireless server. Other that that very nice place.</t>
+  </si>
+  <si>
+    <t>MI_Bus_Traveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r13138948-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -2528,6 +2876,9 @@
 Negatives:  Road noise--you get a fair amount of it if you stay on the side closest to the freeway (I can't comment on the other side).  Elevators are older, and fairly slow.  The rooms are some of the smallest I have seen in a Marriott property.  Having said that, I stayed by myself for business, so that was really not an issue.  But if you were staying here with a family, you would be very cramped.  I...I stayed at the Fairfield Mission Viejo for business in January, 2008.  As one of the previous reviewers mentioned, it is wedged behind two gas stations, so it is a little difficult to find as you are exiting I-5.  Positives:  Grounds are very clean, one of the better kept Fairfields I have seen.  Front desk staff are friendly, and check-in was easy.  The rate was less than 1/2 what I would have paid for a Courtyard 10 miles up the road, which is a definite plus.  Free wireless that is pretty fast.  Free breakfast as well--standard Fairfield fare.  Having the gas stations right next door is nice if you want to pick up a snack or beverage.  If you are driving for business as I am, there is a real advantage to being literally right next to the I-5--it can save you 10-15 minutes of traffic just getting on the freeways around here.  Bed was fine--typical Marriott.  Quiet in terms of human noise.Negatives:  Road noise--you get a fair amount of it if you stay on the side closest to the freeway (I can't comment on the other side).  Elevators are older, and fairly slow.  The rooms are some of the smallest I have seen in a Marriott property.  Having said that, I stayed by myself for business, so that was really not an issue.  But if you were staying here with a family, you would be very cramped.  I should also add that they seem to have been recently renovated, and are clean and new-looking.Overall:  good value for business, and I'm glad to save my employer a few bucks.  I wouldn't stay here if I were on vacation, though--it doesn't feel like this particular Fairfield is built for that.More</t>
   </si>
   <si>
+    <t>pattayainsider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r10628558-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2543,6 +2894,9 @@
     <t>Nice place, room just fine, quiet, nice pool, freeway convenient.  Breakfast was good, easy parking.  I like that you can walk to a big gas station minimart, 1 minute away, open 24 hours, that had great quality deli-style sandwiches, fresh fruit, etc.  Also a Carl's Jr. fast food place 2 minutes walk away, open late.Not a real destination, but if you're in the area, a good choice.  I found it a little expensive for what it was, but I imagine that's the fair price in that area.</t>
   </si>
   <si>
+    <t>Fender57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r5528457-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2558,6 +2912,9 @@
     <t>The Fairfield was very clean, very comfortable, with  very accommodating people at the desk. The location wasn't the greatest----stuck right behind two gas stations and right next to the highway. The highway was very loud when swimming in the pool but you couldn'r hear it in the rooms. A good alternative to the pricey hotels in Laguna and surrounding beach areas.</t>
   </si>
   <si>
+    <t>peezmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r4314143-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
   </si>
   <si>
@@ -2571,6 +2928,9 @@
   </si>
   <si>
     <t>If we are ever in the area again, we would not return to this hotel. Being the most expensive hotel of the three we stayed at during our trip, we didn't expect a tiny room, stone-hard beds, pillows with hard clumps in them, shower water that is barely above tepid (at 10:30 at night), and our favorite...a toilet that was picky about flushing-either you had to dump an ice bucket of water into it or wiggle the handle till you got carpal syndrome. Nope, we don't need to ever do this hotel again. The staff was friendly and helpful enough, the continental breakfast was average.</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32722-d78258-r3210814-Fairfield_Inn_Mission_Viejo_Orange_County-Mission_Viejo_California.html</t>
@@ -3090,43 +3450,47 @@
       <c r="A2" t="n">
         <v>24061</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>20182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -3146,50 +3510,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>24061</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>147289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -3209,50 +3577,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>24061</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3272,41 +3644,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>24061</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -3325,50 +3701,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>24061</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>147290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3386,56 +3766,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>24061</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>147291</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3449,50 +3833,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>24061</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>147292</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3504,56 +3892,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>24061</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>10096</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3569,56 +3961,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24061</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>147293</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3636,50 +4032,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>24061</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>147294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3693,41 +4093,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>24061</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>147295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
@@ -3744,56 +4148,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>24061</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>13978</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3811,50 +4219,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>24061</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>147296</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3870,56 +4282,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>24061</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>5471</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3933,50 +4349,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>24061</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>147297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3996,50 +4416,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>24061</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>147298</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4057,50 +4481,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>24061</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>37592</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -4120,50 +4548,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>24061</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>147299</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4181,56 +4613,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="X19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="Y19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>24061</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>147300</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4244,50 +4680,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>24061</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>80504</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4299,56 +4739,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>24061</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>147301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4364,56 +4808,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>24061</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>5561</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4431,50 +4879,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>24061</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>43955</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4494,50 +4946,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24061</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>147302</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4549,56 +5005,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24061</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>87213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4616,56 +5076,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="X26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>24061</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>147303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>248</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4683,56 +5147,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="X27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>24061</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>8751</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4748,56 +5216,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="X28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>24061</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4809,56 +5281,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="X29" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>24061</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>147304</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="J30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4870,56 +5346,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="X30" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Y30" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>24061</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>12951</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>254</v>
       </c>
-      <c r="K31" t="s">
-        <v>255</v>
-      </c>
-      <c r="L31" t="s">
-        <v>256</v>
-      </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s">
-        <v>228</v>
-      </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4935,50 +5415,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>24061</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>147305</v>
+      </c>
+      <c r="C32" t="s">
+        <v>286</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4998,50 +5482,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>24061</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>147306</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5061,50 +5549,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>24061</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>3447</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5122,50 +5614,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>24061</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>147307</v>
+      </c>
+      <c r="C35" t="s">
+        <v>306</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="J35" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5185,50 +5681,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>24061</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>147308</v>
+      </c>
+      <c r="C36" t="s">
+        <v>315</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="O36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5246,50 +5746,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>24061</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>43968</v>
+      </c>
+      <c r="C37" t="s">
+        <v>321</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5307,50 +5811,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>24061</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>147309</v>
+      </c>
+      <c r="C38" t="s">
+        <v>327</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="J38" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -5368,56 +5876,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="X38" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>24061</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>118494</v>
+      </c>
+      <c r="C39" t="s">
+        <v>336</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5435,56 +5947,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="X39" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="Y39" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>24061</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>147310</v>
+      </c>
+      <c r="C40" t="s">
+        <v>345</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="K40" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5498,41 +6014,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>24061</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>147311</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="J41" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="K41" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -5551,50 +6071,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>24061</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>147312</v>
+      </c>
+      <c r="C42" t="s">
+        <v>358</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="J42" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5608,50 +6132,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>24061</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>27841</v>
+      </c>
+      <c r="C43" t="s">
+        <v>364</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="J43" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5669,50 +6197,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>24061</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>147313</v>
+      </c>
+      <c r="C44" t="s">
+        <v>370</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="J44" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="O44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5732,50 +6264,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>24061</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>26678</v>
+      </c>
+      <c r="C45" t="s">
+        <v>378</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="J45" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="K45" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5795,50 +6331,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>24061</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>23461</v>
+      </c>
+      <c r="C46" t="s">
+        <v>385</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="J46" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="K46" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="L46" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5856,50 +6396,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>24061</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>147314</v>
+      </c>
+      <c r="C47" t="s">
+        <v>392</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="J47" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="K47" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="L47" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="O47" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5919,50 +6463,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>24061</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>147315</v>
+      </c>
+      <c r="C48" t="s">
+        <v>399</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="J48" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="K48" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5982,50 +6530,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>24061</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>43223</v>
+      </c>
+      <c r="C49" t="s">
+        <v>405</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="J49" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6041,56 +6593,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="X49" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="Y49" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>24061</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>63922</v>
+      </c>
+      <c r="C50" t="s">
+        <v>414</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="J50" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -6108,50 +6664,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>24061</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>147316</v>
+      </c>
+      <c r="C51" t="s">
+        <v>422</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="J51" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="K51" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6169,50 +6729,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>24061</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>147317</v>
+      </c>
+      <c r="C52" t="s">
+        <v>428</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="J52" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6232,50 +6796,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>24061</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>147318</v>
+      </c>
+      <c r="C53" t="s">
+        <v>435</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="J53" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="K53" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="L53" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6293,50 +6861,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>24061</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>147319</v>
+      </c>
+      <c r="C54" t="s">
+        <v>442</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="J54" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="K54" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="L54" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6350,50 +6922,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>24061</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>85368</v>
+      </c>
+      <c r="C55" t="s">
+        <v>448</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="J55" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="K55" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="L55" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6411,50 +6987,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>24061</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>147320</v>
+      </c>
+      <c r="C56" t="s">
+        <v>454</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="J56" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="K56" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6470,56 +7050,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="X56" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="Y56" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>24061</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>32595</v>
+      </c>
+      <c r="C57" t="s">
+        <v>463</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="J57" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="K57" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="L57" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6537,50 +7121,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>24061</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>147321</v>
+      </c>
+      <c r="C58" t="s">
+        <v>469</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J58" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="K58" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="L58" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6592,56 +7180,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="X58" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="Y58" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>24061</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>33472</v>
+      </c>
+      <c r="C59" t="s">
+        <v>479</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="J59" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="K59" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6659,50 +7251,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>24061</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>47353</v>
+      </c>
+      <c r="C60" t="s">
+        <v>486</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="J60" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="K60" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="L60" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6720,50 +7316,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>24061</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>15626</v>
+      </c>
+      <c r="C61" t="s">
+        <v>492</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="J61" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="K61" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="L61" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="O61" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6781,50 +7381,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>24061</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>147322</v>
+      </c>
+      <c r="C62" t="s">
+        <v>499</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="J62" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="K62" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="L62" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="O62" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6842,50 +7446,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>24061</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>147323</v>
+      </c>
+      <c r="C63" t="s">
+        <v>506</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="J63" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="K63" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="L63" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="O63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6901,56 +7509,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="X63" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="Y63" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>24061</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>79880</v>
+      </c>
+      <c r="C64" t="s">
+        <v>516</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="J64" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
       <c r="K64" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="L64" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>460</v>
+        <v>522</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
@@ -6970,50 +7582,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>24061</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>147324</v>
+      </c>
+      <c r="C65" t="s">
+        <v>523</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>461</v>
+        <v>524</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="J65" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="K65" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="L65" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="O65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7027,50 +7643,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>24061</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>147325</v>
+      </c>
+      <c r="C66" t="s">
+        <v>530</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="J66" t="s">
-        <v>469</v>
+        <v>533</v>
       </c>
       <c r="K66" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="L66" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="O66" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7084,50 +7704,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>24061</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>74641</v>
+      </c>
+      <c r="C67" t="s">
+        <v>536</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="J67" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
       <c r="K67" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="L67" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="O67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7139,56 +7763,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="X67" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="Y67" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>24061</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>147326</v>
+      </c>
+      <c r="C68" t="s">
+        <v>545</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="J68" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="K68" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="L68" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="O68" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7208,50 +7836,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>24061</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>147327</v>
+      </c>
+      <c r="C69" t="s">
+        <v>553</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="J69" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="K69" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="L69" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7265,50 +7897,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>24061</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>147292</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="J70" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="K70" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="L70" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="O70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7328,41 +7964,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>24061</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>147328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>565</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
       <c r="J71" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="K71" t="s">
-        <v>501</v>
+        <v>569</v>
       </c>
       <c r="L71" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
@@ -7381,50 +8021,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>24061</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>7722</v>
+      </c>
+      <c r="C72" t="s">
+        <v>572</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="J72" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="K72" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="L72" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="O72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7438,50 +8082,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>24061</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>37517</v>
+      </c>
+      <c r="C73" t="s">
+        <v>578</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="J73" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="K73" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="L73" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="O73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7501,50 +8149,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>24061</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>147329</v>
+      </c>
+      <c r="C74" t="s">
+        <v>585</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="J74" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="K74" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
       <c r="L74" t="s">
-        <v>519</v>
+        <v>590</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="O74" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="n">
@@ -7564,50 +8216,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>520</v>
+        <v>591</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>24061</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>147330</v>
+      </c>
+      <c r="C75" t="s">
+        <v>592</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="J75" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="K75" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
       <c r="L75" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>526</v>
+        <v>598</v>
       </c>
       <c r="O75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7625,41 +8281,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>24061</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>967</v>
+      </c>
+      <c r="C76" t="s">
+        <v>600</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="J76" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="K76" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="L76" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -7678,50 +8338,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>24061</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>62608</v>
+      </c>
+      <c r="C77" t="s">
+        <v>607</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>535</v>
+        <v>609</v>
       </c>
       <c r="J77" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="K77" t="s">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="L77" t="s">
-        <v>538</v>
+        <v>612</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>526</v>
+        <v>598</v>
       </c>
       <c r="O77" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7741,50 +8405,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>539</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>24061</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>147331</v>
+      </c>
+      <c r="C78" t="s">
+        <v>614</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>541</v>
+        <v>616</v>
       </c>
       <c r="J78" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="K78" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="L78" t="s">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>545</v>
+        <v>620</v>
       </c>
       <c r="O78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7808,50 +8476,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>544</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>24061</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>147332</v>
+      </c>
+      <c r="C79" t="s">
+        <v>621</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="J79" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="K79" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="L79" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>551</v>
+        <v>627</v>
       </c>
       <c r="O79" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -7875,50 +8547,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>24061</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>147333</v>
+      </c>
+      <c r="C80" t="s">
+        <v>628</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="J80" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="K80" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="L80" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="O80" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7942,50 +8618,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>24061</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>45807</v>
+      </c>
+      <c r="C81" t="s">
+        <v>636</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="J81" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="K81" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="L81" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="O81" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8009,50 +8689,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>24061</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>147334</v>
+      </c>
+      <c r="C82" t="s">
+        <v>643</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>565</v>
+        <v>644</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>566</v>
+        <v>645</v>
       </c>
       <c r="J82" t="s">
-        <v>567</v>
+        <v>646</v>
       </c>
       <c r="K82" t="s">
-        <v>568</v>
+        <v>647</v>
       </c>
       <c r="L82" t="s">
-        <v>569</v>
+        <v>648</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="O82" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8076,41 +8760,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>569</v>
+        <v>648</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>24061</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>147335</v>
+      </c>
+      <c r="C83" t="s">
+        <v>649</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>570</v>
+        <v>650</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>571</v>
+        <v>651</v>
       </c>
       <c r="J83" t="s">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="K83" t="s">
-        <v>573</v>
+        <v>653</v>
       </c>
       <c r="L83" t="s">
-        <v>574</v>
+        <v>654</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
@@ -8139,50 +8827,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>574</v>
+        <v>654</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>24061</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>147336</v>
+      </c>
+      <c r="C84" t="s">
+        <v>655</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="J84" t="s">
-        <v>577</v>
+        <v>658</v>
       </c>
       <c r="K84" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="L84" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8194,56 +8886,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="X84" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
       <c r="Y84" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>24061</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C85" t="s">
+        <v>72</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>585</v>
+        <v>666</v>
       </c>
       <c r="J85" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="K85" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
       <c r="L85" t="s">
-        <v>588</v>
+        <v>669</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="O85" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8267,50 +8963,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>588</v>
+        <v>669</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>24061</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>147337</v>
+      </c>
+      <c r="C86" t="s">
+        <v>670</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>589</v>
+        <v>671</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
       <c r="J86" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="K86" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="L86" t="s">
-        <v>593</v>
+        <v>675</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>594</v>
+        <v>676</v>
       </c>
       <c r="O86" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8334,50 +9034,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>595</v>
+        <v>677</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>24061</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>147338</v>
+      </c>
+      <c r="C87" t="s">
+        <v>678</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>596</v>
+        <v>679</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>597</v>
+        <v>680</v>
       </c>
       <c r="J87" t="s">
-        <v>598</v>
+        <v>681</v>
       </c>
       <c r="K87" t="s">
-        <v>599</v>
+        <v>682</v>
       </c>
       <c r="L87" t="s">
-        <v>600</v>
+        <v>683</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>601</v>
+        <v>684</v>
       </c>
       <c r="O87" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8401,50 +9105,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>602</v>
+        <v>685</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>24061</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>147339</v>
+      </c>
+      <c r="C88" t="s">
+        <v>686</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>603</v>
+        <v>687</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>604</v>
+        <v>688</v>
       </c>
       <c r="J88" t="s">
-        <v>605</v>
+        <v>689</v>
       </c>
       <c r="K88" t="s">
-        <v>606</v>
+        <v>690</v>
       </c>
       <c r="L88" t="s">
-        <v>607</v>
+        <v>691</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>608</v>
+        <v>692</v>
       </c>
       <c r="O88" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8468,50 +9176,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>607</v>
+        <v>691</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>24061</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>147340</v>
+      </c>
+      <c r="C89" t="s">
+        <v>693</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>609</v>
+        <v>694</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>610</v>
+        <v>695</v>
       </c>
       <c r="J89" t="s">
-        <v>611</v>
+        <v>696</v>
       </c>
       <c r="K89" t="s">
-        <v>612</v>
+        <v>697</v>
       </c>
       <c r="L89" t="s">
-        <v>613</v>
+        <v>698</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>614</v>
+        <v>699</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="n">
@@ -8531,50 +9243,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>613</v>
+        <v>698</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>24061</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>53674</v>
+      </c>
+      <c r="C90" t="s">
+        <v>700</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>615</v>
+        <v>701</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="J90" t="s">
-        <v>617</v>
+        <v>703</v>
       </c>
       <c r="K90" t="s">
-        <v>618</v>
+        <v>704</v>
       </c>
       <c r="L90" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>614</v>
+        <v>699</v>
       </c>
       <c r="O90" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8588,50 +9304,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>24061</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>147341</v>
+      </c>
+      <c r="C91" t="s">
+        <v>706</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
       <c r="J91" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="K91" t="s">
-        <v>623</v>
+        <v>710</v>
       </c>
       <c r="L91" t="s">
-        <v>624</v>
+        <v>711</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>614</v>
+        <v>699</v>
       </c>
       <c r="O91" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8655,50 +9375,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>624</v>
+        <v>711</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>24061</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>147342</v>
+      </c>
+      <c r="C92" t="s">
+        <v>712</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>625</v>
+        <v>713</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>626</v>
+        <v>714</v>
       </c>
       <c r="J92" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
       <c r="K92" t="s">
-        <v>628</v>
+        <v>716</v>
       </c>
       <c r="L92" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>608</v>
+        <v>692</v>
       </c>
       <c r="O92" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8722,41 +9446,45 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>24061</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>147343</v>
+      </c>
+      <c r="C93" t="s">
+        <v>718</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>630</v>
+        <v>719</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>631</v>
+        <v>720</v>
       </c>
       <c r="J93" t="s">
-        <v>632</v>
+        <v>721</v>
       </c>
       <c r="K93" t="s">
-        <v>633</v>
+        <v>722</v>
       </c>
       <c r="L93" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
@@ -8785,50 +9513,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>24061</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>99162</v>
+      </c>
+      <c r="C94" t="s">
+        <v>724</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>635</v>
+        <v>725</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="J94" t="s">
-        <v>637</v>
+        <v>727</v>
       </c>
       <c r="K94" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="L94" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="O94" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8852,50 +9584,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>639</v>
+        <v>729</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>24061</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>115703</v>
+      </c>
+      <c r="C95" t="s">
+        <v>731</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>641</v>
+        <v>732</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>642</v>
+        <v>733</v>
       </c>
       <c r="J95" t="s">
-        <v>643</v>
+        <v>734</v>
       </c>
       <c r="K95" t="s">
-        <v>644</v>
+        <v>735</v>
       </c>
       <c r="L95" t="s">
-        <v>645</v>
+        <v>736</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>646</v>
+        <v>737</v>
       </c>
       <c r="O95" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8919,50 +9655,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>647</v>
+        <v>738</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>24061</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>147344</v>
+      </c>
+      <c r="C96" t="s">
+        <v>739</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>648</v>
+        <v>740</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>649</v>
+        <v>741</v>
       </c>
       <c r="J96" t="s">
-        <v>650</v>
+        <v>742</v>
       </c>
       <c r="K96" t="s">
-        <v>651</v>
+        <v>743</v>
       </c>
       <c r="L96" t="s">
-        <v>652</v>
+        <v>744</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>653</v>
+        <v>745</v>
       </c>
       <c r="O96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8986,50 +9726,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>654</v>
+        <v>746</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>24061</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>147345</v>
+      </c>
+      <c r="C97" t="s">
+        <v>747</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>655</v>
+        <v>748</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>656</v>
+        <v>749</v>
       </c>
       <c r="J97" t="s">
-        <v>657</v>
+        <v>750</v>
       </c>
       <c r="K97" t="s">
-        <v>658</v>
+        <v>751</v>
       </c>
       <c r="L97" t="s">
-        <v>659</v>
+        <v>752</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>646</v>
+        <v>737</v>
       </c>
       <c r="O97" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P97" t="s"/>
       <c r="Q97" t="s"/>
@@ -9043,41 +9787,45 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>659</v>
+        <v>752</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>24061</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>831</v>
+      </c>
+      <c r="C98" t="s">
+        <v>753</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>660</v>
+        <v>754</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>661</v>
+        <v>755</v>
       </c>
       <c r="J98" t="s">
-        <v>662</v>
+        <v>756</v>
       </c>
       <c r="K98" t="s">
-        <v>663</v>
+        <v>757</v>
       </c>
       <c r="L98" t="s">
-        <v>664</v>
+        <v>758</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
@@ -9106,50 +9854,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>664</v>
+        <v>758</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>24061</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>147346</v>
+      </c>
+      <c r="C99" t="s">
+        <v>759</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>665</v>
+        <v>760</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="J99" t="s">
-        <v>667</v>
+        <v>762</v>
       </c>
       <c r="K99" t="s">
-        <v>668</v>
+        <v>763</v>
       </c>
       <c r="L99" t="s">
-        <v>669</v>
+        <v>764</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>670</v>
+        <v>765</v>
       </c>
       <c r="O99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9173,50 +9925,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>671</v>
+        <v>766</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>24061</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>672</v>
+        <v>767</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>673</v>
+        <v>768</v>
       </c>
       <c r="J100" t="s">
-        <v>674</v>
+        <v>769</v>
       </c>
       <c r="K100" t="s">
-        <v>675</v>
+        <v>770</v>
       </c>
       <c r="L100" t="s">
-        <v>676</v>
+        <v>771</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>670</v>
+        <v>765</v>
       </c>
       <c r="O100" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9240,50 +9996,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>676</v>
+        <v>771</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>24061</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>147347</v>
+      </c>
+      <c r="C101" t="s">
+        <v>772</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>677</v>
+        <v>773</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>678</v>
+        <v>774</v>
       </c>
       <c r="J101" t="s">
-        <v>679</v>
+        <v>775</v>
       </c>
       <c r="K101" t="s">
-        <v>680</v>
+        <v>776</v>
       </c>
       <c r="L101" t="s">
-        <v>681</v>
+        <v>777</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>682</v>
+        <v>778</v>
       </c>
       <c r="O101" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9307,50 +10067,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>681</v>
+        <v>777</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>24061</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>34250</v>
+      </c>
+      <c r="C102" t="s">
+        <v>779</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>683</v>
+        <v>780</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>684</v>
+        <v>781</v>
       </c>
       <c r="J102" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="K102" t="s">
-        <v>686</v>
+        <v>783</v>
       </c>
       <c r="L102" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>682</v>
+        <v>778</v>
       </c>
       <c r="O102" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9374,50 +10138,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>24061</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>115703</v>
+      </c>
+      <c r="C103" t="s">
+        <v>731</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>688</v>
+        <v>785</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>689</v>
+        <v>786</v>
       </c>
       <c r="J103" t="s">
-        <v>690</v>
+        <v>787</v>
       </c>
       <c r="K103" t="s">
-        <v>691</v>
+        <v>788</v>
       </c>
       <c r="L103" t="s">
-        <v>692</v>
+        <v>789</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>693</v>
+        <v>790</v>
       </c>
       <c r="O103" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9441,50 +10209,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>694</v>
+        <v>791</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>24061</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>147348</v>
+      </c>
+      <c r="C104" t="s">
+        <v>792</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>695</v>
+        <v>793</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>696</v>
+        <v>794</v>
       </c>
       <c r="J104" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="K104" t="s">
-        <v>698</v>
+        <v>796</v>
       </c>
       <c r="L104" t="s">
-        <v>699</v>
+        <v>797</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>700</v>
+        <v>798</v>
       </c>
       <c r="O104" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9508,50 +10280,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>701</v>
+        <v>799</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>24061</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>147349</v>
+      </c>
+      <c r="C105" t="s">
+        <v>800</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>702</v>
+        <v>801</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>703</v>
+        <v>802</v>
       </c>
       <c r="J105" t="s">
-        <v>704</v>
+        <v>803</v>
       </c>
       <c r="K105" t="s">
-        <v>705</v>
+        <v>804</v>
       </c>
       <c r="L105" t="s">
-        <v>706</v>
+        <v>805</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>700</v>
+        <v>798</v>
       </c>
       <c r="O105" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9575,50 +10351,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>706</v>
+        <v>805</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>24061</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>147350</v>
+      </c>
+      <c r="C106" t="s">
+        <v>806</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>707</v>
+        <v>807</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>708</v>
+        <v>808</v>
       </c>
       <c r="J106" t="s">
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="K106" t="s">
-        <v>710</v>
+        <v>810</v>
       </c>
       <c r="L106" t="s">
-        <v>711</v>
+        <v>811</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>700</v>
+        <v>798</v>
       </c>
       <c r="O106" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9642,50 +10422,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>711</v>
+        <v>811</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>24061</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>147351</v>
+      </c>
+      <c r="C107" t="s">
+        <v>812</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>712</v>
+        <v>813</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>713</v>
+        <v>814</v>
       </c>
       <c r="J107" t="s">
-        <v>714</v>
+        <v>815</v>
       </c>
       <c r="K107" t="s">
-        <v>715</v>
+        <v>816</v>
       </c>
       <c r="L107" t="s">
-        <v>716</v>
+        <v>817</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>717</v>
+        <v>818</v>
       </c>
       <c r="O107" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9709,50 +10493,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>718</v>
+        <v>819</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>24061</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>147352</v>
+      </c>
+      <c r="C108" t="s">
+        <v>820</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>719</v>
+        <v>821</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>720</v>
+        <v>822</v>
       </c>
       <c r="J108" t="s">
-        <v>721</v>
+        <v>823</v>
       </c>
       <c r="K108" t="s">
-        <v>722</v>
+        <v>824</v>
       </c>
       <c r="L108" t="s">
-        <v>723</v>
+        <v>825</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>717</v>
+        <v>818</v>
       </c>
       <c r="O108" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -9774,50 +10562,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>724</v>
+        <v>826</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>24061</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>4963</v>
+      </c>
+      <c r="C109" t="s">
+        <v>827</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>725</v>
+        <v>828</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>726</v>
+        <v>829</v>
       </c>
       <c r="J109" t="s">
-        <v>727</v>
+        <v>830</v>
       </c>
       <c r="K109" t="s">
-        <v>728</v>
+        <v>831</v>
       </c>
       <c r="L109" t="s">
-        <v>729</v>
+        <v>832</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>730</v>
+        <v>833</v>
       </c>
       <c r="O109" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -9841,41 +10633,45 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>731</v>
+        <v>834</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>24061</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>147353</v>
+      </c>
+      <c r="C110" t="s">
+        <v>835</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>732</v>
+        <v>836</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>733</v>
+        <v>837</v>
       </c>
       <c r="J110" t="s">
-        <v>734</v>
+        <v>838</v>
       </c>
       <c r="K110" t="s">
-        <v>735</v>
+        <v>839</v>
       </c>
       <c r="L110" t="s">
-        <v>736</v>
+        <v>840</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
@@ -9904,50 +10700,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>736</v>
+        <v>840</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>24061</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>147354</v>
+      </c>
+      <c r="C111" t="s">
+        <v>841</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>737</v>
+        <v>842</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>738</v>
+        <v>843</v>
       </c>
       <c r="J111" t="s">
-        <v>739</v>
+        <v>844</v>
       </c>
       <c r="K111" t="s">
-        <v>740</v>
+        <v>845</v>
       </c>
       <c r="L111" t="s">
-        <v>741</v>
+        <v>846</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
       </c>
       <c r="N111" t="s">
-        <v>742</v>
+        <v>847</v>
       </c>
       <c r="O111" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P111" t="n">
         <v>3</v>
@@ -9971,50 +10771,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>741</v>
+        <v>846</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>24061</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>147355</v>
+      </c>
+      <c r="C112" t="s">
+        <v>848</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>743</v>
+        <v>849</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>744</v>
+        <v>850</v>
       </c>
       <c r="J112" t="s">
-        <v>745</v>
+        <v>851</v>
       </c>
       <c r="K112" t="s">
-        <v>746</v>
+        <v>852</v>
       </c>
       <c r="L112" t="s">
-        <v>747</v>
+        <v>853</v>
       </c>
       <c r="M112" t="n">
         <v>3</v>
       </c>
       <c r="N112" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="O112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10038,50 +10842,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>24061</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>147356</v>
+      </c>
+      <c r="C113" t="s">
+        <v>856</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>750</v>
+        <v>857</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>751</v>
+        <v>858</v>
       </c>
       <c r="J113" t="s">
-        <v>752</v>
+        <v>859</v>
       </c>
       <c r="K113" t="s">
-        <v>753</v>
+        <v>860</v>
       </c>
       <c r="L113" t="s">
-        <v>754</v>
+        <v>861</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>755</v>
+        <v>862</v>
       </c>
       <c r="O113" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -10101,50 +10909,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>754</v>
+        <v>861</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>24061</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>147357</v>
+      </c>
+      <c r="C114" t="s">
+        <v>863</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>756</v>
+        <v>864</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>757</v>
+        <v>865</v>
       </c>
       <c r="J114" t="s">
-        <v>758</v>
+        <v>866</v>
       </c>
       <c r="K114" t="s">
-        <v>759</v>
+        <v>867</v>
       </c>
       <c r="L114" t="s">
-        <v>760</v>
+        <v>868</v>
       </c>
       <c r="M114" t="n">
         <v>3</v>
       </c>
       <c r="N114" t="s">
-        <v>742</v>
+        <v>847</v>
       </c>
       <c r="O114" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P114" t="n">
         <v>3</v>
@@ -10164,50 +10976,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>760</v>
+        <v>868</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>24061</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>147358</v>
+      </c>
+      <c r="C115" t="s">
+        <v>869</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>761</v>
+        <v>870</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>762</v>
+        <v>871</v>
       </c>
       <c r="J115" t="s">
-        <v>763</v>
+        <v>872</v>
       </c>
       <c r="K115" t="s">
-        <v>764</v>
+        <v>873</v>
       </c>
       <c r="L115" t="s">
-        <v>765</v>
+        <v>874</v>
       </c>
       <c r="M115" t="n">
         <v>3</v>
       </c>
       <c r="N115" t="s">
-        <v>742</v>
+        <v>847</v>
       </c>
       <c r="O115" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P115" t="n">
         <v>3</v>
@@ -10227,50 +11043,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>765</v>
+        <v>874</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>24061</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>147359</v>
+      </c>
+      <c r="C116" t="s">
+        <v>875</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>766</v>
+        <v>876</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>767</v>
+        <v>877</v>
       </c>
       <c r="J116" t="s">
-        <v>768</v>
+        <v>878</v>
       </c>
       <c r="K116" t="s">
-        <v>769</v>
+        <v>879</v>
       </c>
       <c r="L116" t="s">
-        <v>770</v>
+        <v>880</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>771</v>
+        <v>881</v>
       </c>
       <c r="O116" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10294,50 +11114,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>772</v>
+        <v>882</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>24061</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>147360</v>
+      </c>
+      <c r="C117" t="s">
+        <v>883</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>773</v>
+        <v>884</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>774</v>
+        <v>885</v>
       </c>
       <c r="J117" t="s">
-        <v>775</v>
+        <v>886</v>
       </c>
       <c r="K117" t="s">
-        <v>776</v>
+        <v>887</v>
       </c>
       <c r="L117" t="s">
-        <v>777</v>
+        <v>888</v>
       </c>
       <c r="M117" t="n">
         <v>2</v>
       </c>
       <c r="N117" t="s">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="O117" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P117" t="n">
         <v>2</v>
@@ -10361,50 +11185,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>777</v>
+        <v>888</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>24061</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>147361</v>
+      </c>
+      <c r="C118" t="s">
+        <v>890</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>779</v>
+        <v>891</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>780</v>
+        <v>892</v>
       </c>
       <c r="J118" t="s">
-        <v>781</v>
+        <v>893</v>
       </c>
       <c r="K118" t="s">
-        <v>782</v>
+        <v>894</v>
       </c>
       <c r="L118" t="s">
-        <v>783</v>
+        <v>895</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
       </c>
       <c r="N118" t="s">
-        <v>784</v>
+        <v>896</v>
       </c>
       <c r="O118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -10428,50 +11256,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>783</v>
+        <v>895</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>24061</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>147362</v>
+      </c>
+      <c r="C119" t="s">
+        <v>897</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>785</v>
+        <v>898</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>786</v>
+        <v>899</v>
       </c>
       <c r="J119" t="s">
-        <v>787</v>
+        <v>900</v>
       </c>
       <c r="K119" t="s">
-        <v>788</v>
+        <v>901</v>
       </c>
       <c r="L119" t="s">
-        <v>789</v>
+        <v>902</v>
       </c>
       <c r="M119" t="n">
         <v>3</v>
       </c>
       <c r="N119" t="s">
-        <v>790</v>
+        <v>903</v>
       </c>
       <c r="O119" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -10495,50 +11327,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>789</v>
+        <v>902</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>24061</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>147363</v>
+      </c>
+      <c r="C120" t="s">
+        <v>904</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>791</v>
+        <v>905</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>792</v>
+        <v>906</v>
       </c>
       <c r="J120" t="s">
-        <v>793</v>
+        <v>907</v>
       </c>
       <c r="K120" t="s">
-        <v>794</v>
+        <v>908</v>
       </c>
       <c r="L120" t="s">
-        <v>795</v>
+        <v>909</v>
       </c>
       <c r="M120" t="n">
         <v>5</v>
       </c>
       <c r="N120" t="s">
-        <v>796</v>
+        <v>910</v>
       </c>
       <c r="O120" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P120" t="n">
         <v>5</v>
@@ -10562,50 +11398,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>795</v>
+        <v>909</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>24061</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C121" t="s">
+        <v>72</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>797</v>
+        <v>911</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>798</v>
+        <v>912</v>
       </c>
       <c r="J121" t="s">
-        <v>799</v>
+        <v>913</v>
       </c>
       <c r="K121" t="s">
-        <v>800</v>
+        <v>914</v>
       </c>
       <c r="L121" t="s">
-        <v>801</v>
+        <v>915</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>796</v>
+        <v>910</v>
       </c>
       <c r="O121" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P121" t="n">
         <v>4</v>
@@ -10629,41 +11469,45 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>801</v>
+        <v>915</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>24061</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>147364</v>
+      </c>
+      <c r="C122" t="s">
+        <v>916</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>802</v>
+        <v>917</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>803</v>
+        <v>918</v>
       </c>
       <c r="J122" t="s">
-        <v>804</v>
+        <v>919</v>
       </c>
       <c r="K122" t="s">
-        <v>805</v>
+        <v>920</v>
       </c>
       <c r="L122" t="s">
-        <v>806</v>
+        <v>921</v>
       </c>
       <c r="M122" t="n">
         <v>4</v>
@@ -10682,50 +11526,54 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>806</v>
+        <v>921</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>24061</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>147365</v>
+      </c>
+      <c r="C123" t="s">
+        <v>922</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>807</v>
+        <v>923</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>808</v>
+        <v>924</v>
       </c>
       <c r="J123" t="s">
-        <v>809</v>
+        <v>925</v>
       </c>
       <c r="K123" t="s">
-        <v>810</v>
+        <v>926</v>
       </c>
       <c r="L123" t="s">
-        <v>811</v>
+        <v>927</v>
       </c>
       <c r="M123" t="n">
         <v>3</v>
       </c>
       <c r="N123" t="s">
-        <v>812</v>
+        <v>928</v>
       </c>
       <c r="O123" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P123" t="n">
         <v>3</v>
@@ -10749,41 +11597,45 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>813</v>
+        <v>929</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>24061</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>26338</v>
+      </c>
+      <c r="C124" t="s">
+        <v>930</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>814</v>
+        <v>931</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I124" t="s">
-        <v>815</v>
+        <v>932</v>
       </c>
       <c r="J124" t="s">
-        <v>816</v>
+        <v>933</v>
       </c>
       <c r="K124" t="s">
-        <v>817</v>
+        <v>934</v>
       </c>
       <c r="L124" t="s">
-        <v>818</v>
+        <v>935</v>
       </c>
       <c r="M124" t="n">
         <v>4</v>
@@ -10812,41 +11664,45 @@
       <c r="W124" t="s"/>
       <c r="X124" t="s"/>
       <c r="Y124" t="s">
-        <v>818</v>
+        <v>935</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>24061</v>
       </c>
-      <c r="B125" t="s"/>
-      <c r="C125" t="s"/>
+      <c r="B125" t="n">
+        <v>147366</v>
+      </c>
+      <c r="C125" t="s">
+        <v>936</v>
+      </c>
       <c r="D125" t="n">
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>819</v>
+        <v>937</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I125" t="s">
-        <v>820</v>
+        <v>938</v>
       </c>
       <c r="J125" t="s">
-        <v>821</v>
+        <v>939</v>
       </c>
       <c r="K125" t="s">
-        <v>822</v>
+        <v>940</v>
       </c>
       <c r="L125" t="s">
-        <v>823</v>
+        <v>941</v>
       </c>
       <c r="M125" t="n">
         <v>4</v>
@@ -10865,41 +11721,45 @@
       <c r="W125" t="s"/>
       <c r="X125" t="s"/>
       <c r="Y125" t="s">
-        <v>823</v>
+        <v>941</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>24061</v>
       </c>
-      <c r="B126" t="s"/>
-      <c r="C126" t="s"/>
+      <c r="B126" t="n">
+        <v>147367</v>
+      </c>
+      <c r="C126" t="s">
+        <v>942</v>
+      </c>
       <c r="D126" t="n">
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>824</v>
+        <v>943</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I126" t="s">
-        <v>825</v>
+        <v>944</v>
       </c>
       <c r="J126" t="s">
-        <v>826</v>
+        <v>945</v>
       </c>
       <c r="K126" t="s">
-        <v>827</v>
+        <v>946</v>
       </c>
       <c r="L126" t="s">
-        <v>828</v>
+        <v>947</v>
       </c>
       <c r="M126" t="n">
         <v>2</v>
@@ -10918,41 +11778,45 @@
       <c r="W126" t="s"/>
       <c r="X126" t="s"/>
       <c r="Y126" t="s">
-        <v>828</v>
+        <v>947</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>24061</v>
       </c>
-      <c r="B127" t="s"/>
-      <c r="C127" t="s"/>
+      <c r="B127" t="n">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>948</v>
+      </c>
       <c r="D127" t="n">
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>829</v>
+        <v>949</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I127" t="s">
-        <v>830</v>
+        <v>950</v>
       </c>
       <c r="J127" t="s">
-        <v>831</v>
+        <v>951</v>
       </c>
       <c r="K127" t="s">
-        <v>832</v>
+        <v>952</v>
       </c>
       <c r="L127" t="s">
-        <v>833</v>
+        <v>953</v>
       </c>
       <c r="M127" t="n">
         <v>5</v>
@@ -10971,7 +11835,7 @@
       <c r="W127" t="s"/>
       <c r="X127" t="s"/>
       <c r="Y127" t="s">
-        <v>833</v>
+        <v>953</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_285.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_285.xlsx
@@ -3518,7 +3518,7 @@
         <v>24061</v>
       </c>
       <c r="B3" t="n">
-        <v>147289</v>
+        <v>178665</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -3709,7 +3709,7 @@
         <v>24061</v>
       </c>
       <c r="B6" t="n">
-        <v>147290</v>
+        <v>178666</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -3780,7 +3780,7 @@
         <v>24061</v>
       </c>
       <c r="B7" t="n">
-        <v>147291</v>
+        <v>178667</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -3841,7 +3841,7 @@
         <v>24061</v>
       </c>
       <c r="B8" t="n">
-        <v>147292</v>
+        <v>178668</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -3975,7 +3975,7 @@
         <v>24061</v>
       </c>
       <c r="B10" t="n">
-        <v>147293</v>
+        <v>147317</v>
       </c>
       <c r="C10" t="s">
         <v>115</v>
@@ -4040,7 +4040,7 @@
         <v>24061</v>
       </c>
       <c r="B11" t="n">
-        <v>147294</v>
+        <v>178669</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
@@ -4101,7 +4101,7 @@
         <v>24061</v>
       </c>
       <c r="B12" t="n">
-        <v>147295</v>
+        <v>178670</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
@@ -4227,7 +4227,7 @@
         <v>24061</v>
       </c>
       <c r="B14" t="n">
-        <v>147296</v>
+        <v>178671</v>
       </c>
       <c r="C14" t="s">
         <v>145</v>
@@ -4357,7 +4357,7 @@
         <v>24061</v>
       </c>
       <c r="B16" t="n">
-        <v>147297</v>
+        <v>178672</v>
       </c>
       <c r="C16" t="s">
         <v>161</v>
@@ -4424,7 +4424,7 @@
         <v>24061</v>
       </c>
       <c r="B17" t="n">
-        <v>147298</v>
+        <v>178673</v>
       </c>
       <c r="C17" t="s">
         <v>168</v>
@@ -4556,7 +4556,7 @@
         <v>24061</v>
       </c>
       <c r="B19" t="n">
-        <v>147299</v>
+        <v>178674</v>
       </c>
       <c r="C19" t="s">
         <v>182</v>
@@ -4627,7 +4627,7 @@
         <v>24061</v>
       </c>
       <c r="B20" t="n">
-        <v>147300</v>
+        <v>178675</v>
       </c>
       <c r="C20" t="s">
         <v>192</v>
@@ -4753,7 +4753,7 @@
         <v>24061</v>
       </c>
       <c r="B22" t="n">
-        <v>147301</v>
+        <v>178676</v>
       </c>
       <c r="C22" t="s">
         <v>207</v>
@@ -4954,7 +4954,7 @@
         <v>24061</v>
       </c>
       <c r="B25" t="n">
-        <v>147302</v>
+        <v>178677</v>
       </c>
       <c r="C25" t="s">
         <v>229</v>
@@ -5090,7 +5090,7 @@
         <v>24061</v>
       </c>
       <c r="B27" t="n">
-        <v>147303</v>
+        <v>178678</v>
       </c>
       <c r="C27" t="s">
         <v>248</v>
@@ -5295,7 +5295,7 @@
         <v>24061</v>
       </c>
       <c r="B30" t="n">
-        <v>147304</v>
+        <v>178679</v>
       </c>
       <c r="C30" t="s">
         <v>271</v>
@@ -5423,7 +5423,7 @@
         <v>24061</v>
       </c>
       <c r="B32" t="n">
-        <v>147305</v>
+        <v>178680</v>
       </c>
       <c r="C32" t="s">
         <v>286</v>
@@ -5490,7 +5490,7 @@
         <v>24061</v>
       </c>
       <c r="B33" t="n">
-        <v>147306</v>
+        <v>178681</v>
       </c>
       <c r="C33" t="s">
         <v>293</v>
@@ -5622,7 +5622,7 @@
         <v>24061</v>
       </c>
       <c r="B35" t="n">
-        <v>147307</v>
+        <v>178682</v>
       </c>
       <c r="C35" t="s">
         <v>306</v>
@@ -5689,7 +5689,7 @@
         <v>24061</v>
       </c>
       <c r="B36" t="n">
-        <v>147308</v>
+        <v>178683</v>
       </c>
       <c r="C36" t="s">
         <v>315</v>
@@ -5819,7 +5819,7 @@
         <v>24061</v>
       </c>
       <c r="B38" t="n">
-        <v>147309</v>
+        <v>178684</v>
       </c>
       <c r="C38" t="s">
         <v>327</v>
@@ -5961,7 +5961,7 @@
         <v>24061</v>
       </c>
       <c r="B40" t="n">
-        <v>147310</v>
+        <v>178685</v>
       </c>
       <c r="C40" t="s">
         <v>345</v>
@@ -6022,7 +6022,7 @@
         <v>24061</v>
       </c>
       <c r="B41" t="n">
-        <v>147311</v>
+        <v>178686</v>
       </c>
       <c r="C41" t="s">
         <v>352</v>
@@ -6079,7 +6079,7 @@
         <v>24061</v>
       </c>
       <c r="B42" t="n">
-        <v>147312</v>
+        <v>178687</v>
       </c>
       <c r="C42" t="s">
         <v>358</v>
@@ -6205,7 +6205,7 @@
         <v>24061</v>
       </c>
       <c r="B44" t="n">
-        <v>147313</v>
+        <v>178688</v>
       </c>
       <c r="C44" t="s">
         <v>370</v>
@@ -6404,7 +6404,7 @@
         <v>24061</v>
       </c>
       <c r="B47" t="n">
-        <v>147314</v>
+        <v>178689</v>
       </c>
       <c r="C47" t="s">
         <v>392</v>
@@ -6471,7 +6471,7 @@
         <v>24061</v>
       </c>
       <c r="B48" t="n">
-        <v>147315</v>
+        <v>178690</v>
       </c>
       <c r="C48" t="s">
         <v>399</v>
@@ -6672,7 +6672,7 @@
         <v>24061</v>
       </c>
       <c r="B51" t="n">
-        <v>147316</v>
+        <v>178691</v>
       </c>
       <c r="C51" t="s">
         <v>422</v>
@@ -6737,7 +6737,7 @@
         <v>24061</v>
       </c>
       <c r="B52" t="n">
-        <v>147317</v>
+        <v>178692</v>
       </c>
       <c r="C52" t="s">
         <v>428</v>
@@ -6804,7 +6804,7 @@
         <v>24061</v>
       </c>
       <c r="B53" t="n">
-        <v>147318</v>
+        <v>178693</v>
       </c>
       <c r="C53" t="s">
         <v>435</v>
@@ -6869,7 +6869,7 @@
         <v>24061</v>
       </c>
       <c r="B54" t="n">
-        <v>147319</v>
+        <v>178694</v>
       </c>
       <c r="C54" t="s">
         <v>442</v>
@@ -6995,7 +6995,7 @@
         <v>24061</v>
       </c>
       <c r="B56" t="n">
-        <v>147320</v>
+        <v>178695</v>
       </c>
       <c r="C56" t="s">
         <v>454</v>
@@ -7129,7 +7129,7 @@
         <v>24061</v>
       </c>
       <c r="B58" t="n">
-        <v>147321</v>
+        <v>178696</v>
       </c>
       <c r="C58" t="s">
         <v>469</v>
@@ -7389,7 +7389,7 @@
         <v>24061</v>
       </c>
       <c r="B62" t="n">
-        <v>147322</v>
+        <v>178697</v>
       </c>
       <c r="C62" t="s">
         <v>499</v>
@@ -7454,7 +7454,7 @@
         <v>24061</v>
       </c>
       <c r="B63" t="n">
-        <v>147323</v>
+        <v>178698</v>
       </c>
       <c r="C63" t="s">
         <v>506</v>
@@ -7590,7 +7590,7 @@
         <v>24061</v>
       </c>
       <c r="B65" t="n">
-        <v>147324</v>
+        <v>178699</v>
       </c>
       <c r="C65" t="s">
         <v>523</v>
@@ -7651,7 +7651,7 @@
         <v>24061</v>
       </c>
       <c r="B66" t="n">
-        <v>147325</v>
+        <v>178700</v>
       </c>
       <c r="C66" t="s">
         <v>530</v>
@@ -7777,7 +7777,7 @@
         <v>24061</v>
       </c>
       <c r="B68" t="n">
-        <v>147326</v>
+        <v>178701</v>
       </c>
       <c r="C68" t="s">
         <v>545</v>
@@ -7844,7 +7844,7 @@
         <v>24061</v>
       </c>
       <c r="B69" t="n">
-        <v>147327</v>
+        <v>178702</v>
       </c>
       <c r="C69" t="s">
         <v>553</v>
@@ -7905,7 +7905,7 @@
         <v>24061</v>
       </c>
       <c r="B70" t="n">
-        <v>147292</v>
+        <v>147317</v>
       </c>
       <c r="C70" t="s">
         <v>115</v>
@@ -7972,7 +7972,7 @@
         <v>24061</v>
       </c>
       <c r="B71" t="n">
-        <v>147328</v>
+        <v>178703</v>
       </c>
       <c r="C71" t="s">
         <v>565</v>
@@ -8157,7 +8157,7 @@
         <v>24061</v>
       </c>
       <c r="B74" t="n">
-        <v>147329</v>
+        <v>178704</v>
       </c>
       <c r="C74" t="s">
         <v>585</v>
@@ -8224,7 +8224,7 @@
         <v>24061</v>
       </c>
       <c r="B75" t="n">
-        <v>147330</v>
+        <v>178705</v>
       </c>
       <c r="C75" t="s">
         <v>592</v>
@@ -8413,7 +8413,7 @@
         <v>24061</v>
       </c>
       <c r="B78" t="n">
-        <v>147331</v>
+        <v>178706</v>
       </c>
       <c r="C78" t="s">
         <v>614</v>
@@ -8484,7 +8484,7 @@
         <v>24061</v>
       </c>
       <c r="B79" t="n">
-        <v>147332</v>
+        <v>178707</v>
       </c>
       <c r="C79" t="s">
         <v>621</v>
@@ -8555,7 +8555,7 @@
         <v>24061</v>
       </c>
       <c r="B80" t="n">
-        <v>147333</v>
+        <v>178708</v>
       </c>
       <c r="C80" t="s">
         <v>628</v>
@@ -8697,7 +8697,7 @@
         <v>24061</v>
       </c>
       <c r="B82" t="n">
-        <v>147334</v>
+        <v>178709</v>
       </c>
       <c r="C82" t="s">
         <v>643</v>
@@ -8768,7 +8768,7 @@
         <v>24061</v>
       </c>
       <c r="B83" t="n">
-        <v>147335</v>
+        <v>178710</v>
       </c>
       <c r="C83" t="s">
         <v>649</v>
@@ -8835,7 +8835,7 @@
         <v>24061</v>
       </c>
       <c r="B84" t="n">
-        <v>147336</v>
+        <v>178711</v>
       </c>
       <c r="C84" t="s">
         <v>655</v>
@@ -8971,7 +8971,7 @@
         <v>24061</v>
       </c>
       <c r="B86" t="n">
-        <v>147337</v>
+        <v>178712</v>
       </c>
       <c r="C86" t="s">
         <v>670</v>
@@ -9042,7 +9042,7 @@
         <v>24061</v>
       </c>
       <c r="B87" t="n">
-        <v>147338</v>
+        <v>178713</v>
       </c>
       <c r="C87" t="s">
         <v>678</v>
@@ -9113,7 +9113,7 @@
         <v>24061</v>
       </c>
       <c r="B88" t="n">
-        <v>147339</v>
+        <v>178714</v>
       </c>
       <c r="C88" t="s">
         <v>686</v>
@@ -9184,7 +9184,7 @@
         <v>24061</v>
       </c>
       <c r="B89" t="n">
-        <v>147340</v>
+        <v>178715</v>
       </c>
       <c r="C89" t="s">
         <v>693</v>
@@ -9312,7 +9312,7 @@
         <v>24061</v>
       </c>
       <c r="B91" t="n">
-        <v>147341</v>
+        <v>178716</v>
       </c>
       <c r="C91" t="s">
         <v>706</v>
@@ -9383,7 +9383,7 @@
         <v>24061</v>
       </c>
       <c r="B92" t="n">
-        <v>147342</v>
+        <v>178717</v>
       </c>
       <c r="C92" t="s">
         <v>712</v>
@@ -9454,7 +9454,7 @@
         <v>24061</v>
       </c>
       <c r="B93" t="n">
-        <v>147343</v>
+        <v>178718</v>
       </c>
       <c r="C93" t="s">
         <v>718</v>
@@ -9663,7 +9663,7 @@
         <v>24061</v>
       </c>
       <c r="B96" t="n">
-        <v>147344</v>
+        <v>178719</v>
       </c>
       <c r="C96" t="s">
         <v>739</v>
@@ -9734,7 +9734,7 @@
         <v>24061</v>
       </c>
       <c r="B97" t="n">
-        <v>147345</v>
+        <v>178720</v>
       </c>
       <c r="C97" t="s">
         <v>747</v>
@@ -9862,7 +9862,7 @@
         <v>24061</v>
       </c>
       <c r="B99" t="n">
-        <v>147346</v>
+        <v>178721</v>
       </c>
       <c r="C99" t="s">
         <v>759</v>
@@ -10004,7 +10004,7 @@
         <v>24061</v>
       </c>
       <c r="B101" t="n">
-        <v>147347</v>
+        <v>178722</v>
       </c>
       <c r="C101" t="s">
         <v>772</v>
@@ -10217,7 +10217,7 @@
         <v>24061</v>
       </c>
       <c r="B104" t="n">
-        <v>147348</v>
+        <v>178723</v>
       </c>
       <c r="C104" t="s">
         <v>792</v>
@@ -10288,7 +10288,7 @@
         <v>24061</v>
       </c>
       <c r="B105" t="n">
-        <v>147349</v>
+        <v>178724</v>
       </c>
       <c r="C105" t="s">
         <v>800</v>
@@ -10359,7 +10359,7 @@
         <v>24061</v>
       </c>
       <c r="B106" t="n">
-        <v>147350</v>
+        <v>178725</v>
       </c>
       <c r="C106" t="s">
         <v>806</v>
@@ -10430,7 +10430,7 @@
         <v>24061</v>
       </c>
       <c r="B107" t="n">
-        <v>147351</v>
+        <v>178726</v>
       </c>
       <c r="C107" t="s">
         <v>812</v>
@@ -10501,7 +10501,7 @@
         <v>24061</v>
       </c>
       <c r="B108" t="n">
-        <v>147352</v>
+        <v>178727</v>
       </c>
       <c r="C108" t="s">
         <v>820</v>
@@ -10641,7 +10641,7 @@
         <v>24061</v>
       </c>
       <c r="B110" t="n">
-        <v>147353</v>
+        <v>178728</v>
       </c>
       <c r="C110" t="s">
         <v>835</v>
@@ -10708,7 +10708,7 @@
         <v>24061</v>
       </c>
       <c r="B111" t="n">
-        <v>147354</v>
+        <v>178729</v>
       </c>
       <c r="C111" t="s">
         <v>841</v>
@@ -10779,7 +10779,7 @@
         <v>24061</v>
       </c>
       <c r="B112" t="n">
-        <v>147355</v>
+        <v>178730</v>
       </c>
       <c r="C112" t="s">
         <v>848</v>
@@ -10850,7 +10850,7 @@
         <v>24061</v>
       </c>
       <c r="B113" t="n">
-        <v>147356</v>
+        <v>178731</v>
       </c>
       <c r="C113" t="s">
         <v>856</v>
@@ -10917,7 +10917,7 @@
         <v>24061</v>
       </c>
       <c r="B114" t="n">
-        <v>147357</v>
+        <v>178732</v>
       </c>
       <c r="C114" t="s">
         <v>863</v>
@@ -10984,7 +10984,7 @@
         <v>24061</v>
       </c>
       <c r="B115" t="n">
-        <v>147358</v>
+        <v>178733</v>
       </c>
       <c r="C115" t="s">
         <v>869</v>
@@ -11051,7 +11051,7 @@
         <v>24061</v>
       </c>
       <c r="B116" t="n">
-        <v>147359</v>
+        <v>178734</v>
       </c>
       <c r="C116" t="s">
         <v>875</v>
@@ -11122,7 +11122,7 @@
         <v>24061</v>
       </c>
       <c r="B117" t="n">
-        <v>147360</v>
+        <v>178735</v>
       </c>
       <c r="C117" t="s">
         <v>883</v>
@@ -11193,7 +11193,7 @@
         <v>24061</v>
       </c>
       <c r="B118" t="n">
-        <v>147361</v>
+        <v>178736</v>
       </c>
       <c r="C118" t="s">
         <v>890</v>
@@ -11264,7 +11264,7 @@
         <v>24061</v>
       </c>
       <c r="B119" t="n">
-        <v>147362</v>
+        <v>178737</v>
       </c>
       <c r="C119" t="s">
         <v>897</v>
@@ -11335,7 +11335,7 @@
         <v>24061</v>
       </c>
       <c r="B120" t="n">
-        <v>147363</v>
+        <v>178738</v>
       </c>
       <c r="C120" t="s">
         <v>904</v>
@@ -11477,7 +11477,7 @@
         <v>24061</v>
       </c>
       <c r="B122" t="n">
-        <v>147364</v>
+        <v>178739</v>
       </c>
       <c r="C122" t="s">
         <v>916</v>
@@ -11534,7 +11534,7 @@
         <v>24061</v>
       </c>
       <c r="B123" t="n">
-        <v>147365</v>
+        <v>178740</v>
       </c>
       <c r="C123" t="s">
         <v>922</v>
@@ -11672,7 +11672,7 @@
         <v>24061</v>
       </c>
       <c r="B125" t="n">
-        <v>147366</v>
+        <v>178741</v>
       </c>
       <c r="C125" t="s">
         <v>936</v>
@@ -11729,7 +11729,7 @@
         <v>24061</v>
       </c>
       <c r="B126" t="n">
-        <v>147367</v>
+        <v>178742</v>
       </c>
       <c r="C126" t="s">
         <v>942</v>
